--- a/tasks/660_templates_disease_map.xlsx
+++ b/tasks/660_templates_disease_map.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremy.li/Basebit/Projects/AutoTemplate/tasks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC11447-4AD3-AB47-AE0D-7AD1189CD1BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21694609-F44A-0745-A06B-EE33BB542DD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15520" yWindow="-19600" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$661</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$K$1:$K$661</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -4732,7 +4732,7 @@
   <dimension ref="A1:M661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H186" sqref="H186"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4783,7 +4783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" hidden="1">
+    <row r="2" spans="1:13">
       <c r="C2" t="s">
         <v>13</v>
       </c>
@@ -4806,7 +4806,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="3" spans="1:13" hidden="1">
+    <row r="3" spans="1:13">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="4" spans="1:13" hidden="1">
+    <row r="4" spans="1:13">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="5" spans="1:13" hidden="1">
+    <row r="5" spans="1:13">
       <c r="C5" t="s">
         <v>16</v>
       </c>
@@ -4875,7 +4875,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="6" spans="1:13" hidden="1">
+    <row r="6" spans="1:13">
       <c r="C6" t="s">
         <v>17</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="7" spans="1:13" hidden="1">
+    <row r="7" spans="1:13">
       <c r="C7" t="s">
         <v>18</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="8" spans="1:13" hidden="1">
+    <row r="8" spans="1:13">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="9" spans="1:13" hidden="1">
+    <row r="9" spans="1:13">
       <c r="C9" t="s">
         <v>20</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="10" spans="1:13" hidden="1">
+    <row r="10" spans="1:13">
       <c r="C10" t="s">
         <v>21</v>
       </c>
@@ -4987,7 +4987,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="11" spans="1:13" hidden="1">
+    <row r="11" spans="1:13">
       <c r="C11" t="s">
         <v>22</v>
       </c>
@@ -5010,7 +5010,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="12" spans="1:13" hidden="1">
+    <row r="12" spans="1:13">
       <c r="C12" t="s">
         <v>23</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="13" spans="1:13" hidden="1">
+    <row r="13" spans="1:13">
       <c r="C13" t="s">
         <v>24</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="14" spans="1:13" hidden="1">
+    <row r="14" spans="1:13">
       <c r="C14" t="s">
         <v>25</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="15" spans="1:13" hidden="1">
+    <row r="15" spans="1:13">
       <c r="C15" t="s">
         <v>26</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="16" spans="1:13" hidden="1">
+    <row r="16" spans="1:13">
       <c r="C16" t="s">
         <v>27</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="17" spans="3:13" hidden="1">
+    <row r="17" spans="3:13">
       <c r="C17" t="s">
         <v>28</v>
       </c>
@@ -5133,7 +5133,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="18" spans="3:13" hidden="1">
+    <row r="18" spans="3:13">
       <c r="C18" t="s">
         <v>29</v>
       </c>
@@ -5156,7 +5156,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="19" spans="3:13" hidden="1">
+    <row r="19" spans="3:13">
       <c r="C19" t="s">
         <v>30</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="20" spans="3:13" hidden="1">
+    <row r="20" spans="3:13">
       <c r="C20" t="s">
         <v>31</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:13" hidden="1">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="22" spans="3:13" hidden="1">
+    <row r="22" spans="3:13">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="23" spans="3:13" hidden="1">
+    <row r="23" spans="3:13">
       <c r="C23" t="s">
         <v>34</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="24" spans="3:13" hidden="1">
+    <row r="24" spans="3:13">
       <c r="C24" t="s">
         <v>35</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="25" spans="3:13" hidden="1">
+    <row r="25" spans="3:13">
       <c r="C25" t="s">
         <v>36</v>
       </c>
@@ -5314,7 +5314,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="26" spans="3:13" hidden="1">
+    <row r="26" spans="3:13">
       <c r="C26" t="s">
         <v>37</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="27" spans="3:13" hidden="1">
+    <row r="27" spans="3:13">
       <c r="C27" t="s">
         <v>38</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="28" spans="3:13" hidden="1">
+    <row r="28" spans="3:13">
       <c r="C28" t="s">
         <v>39</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="29" spans="3:13" hidden="1">
+    <row r="29" spans="3:13">
       <c r="C29" t="s">
         <v>40</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="30" spans="3:13" hidden="1">
+    <row r="30" spans="3:13">
       <c r="C30" t="s">
         <v>41</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="31" spans="3:13" hidden="1">
+    <row r="31" spans="3:13">
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="32" spans="3:13" hidden="1">
+    <row r="32" spans="3:13">
       <c r="C32" t="s">
         <v>43</v>
       </c>
@@ -5478,7 +5478,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="33" spans="3:13" hidden="1">
+    <row r="33" spans="3:13">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="34" spans="3:13" hidden="1">
+    <row r="34" spans="3:13">
       <c r="C34" t="s">
         <v>45</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="36" spans="3:13" hidden="1">
+    <row r="36" spans="3:13">
       <c r="C36" t="s">
         <v>47</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="37" spans="3:13" hidden="1">
+    <row r="37" spans="3:13">
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="38" spans="3:13" hidden="1">
+    <row r="38" spans="3:13">
       <c r="C38" t="s">
         <v>49</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="39" spans="3:13" hidden="1">
+    <row r="39" spans="3:13">
       <c r="C39" t="s">
         <v>50</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="40" spans="3:13" hidden="1">
+    <row r="40" spans="3:13">
       <c r="C40" t="s">
         <v>51</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="41" spans="3:13" hidden="1">
+    <row r="41" spans="3:13">
       <c r="C41" t="s">
         <v>52</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="42" spans="3:13" hidden="1">
+    <row r="42" spans="3:13">
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="43" spans="3:13" hidden="1">
+    <row r="43" spans="3:13">
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="44" spans="3:13" hidden="1">
+    <row r="44" spans="3:13">
       <c r="C44" t="s">
         <v>55</v>
       </c>
@@ -5766,7 +5766,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="45" spans="3:13" hidden="1">
+    <row r="45" spans="3:13">
       <c r="C45" t="s">
         <v>56</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="46" spans="3:13" hidden="1">
+    <row r="46" spans="3:13">
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="47" spans="3:13" hidden="1">
+    <row r="47" spans="3:13">
       <c r="C47" t="s">
         <v>58</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="48" spans="3:13" hidden="1">
+    <row r="48" spans="3:13">
       <c r="C48" t="s">
         <v>59</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="49" spans="3:13" hidden="1">
+    <row r="49" spans="3:13">
       <c r="C49" t="s">
         <v>60</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="50" spans="3:13" hidden="1">
+    <row r="50" spans="3:13">
       <c r="C50" t="s">
         <v>61</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="51" spans="3:13" hidden="1">
+    <row r="51" spans="3:13">
       <c r="C51" t="s">
         <v>62</v>
       </c>
@@ -5933,7 +5933,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="52" spans="3:13" hidden="1">
+    <row r="52" spans="3:13">
       <c r="C52" t="s">
         <v>63</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="53" spans="3:13" hidden="1">
+    <row r="53" spans="3:13">
       <c r="C53" t="s">
         <v>64</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="54" spans="3:13" hidden="1">
+    <row r="54" spans="3:13">
       <c r="C54" t="s">
         <v>65</v>
       </c>
@@ -5996,7 +5996,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="55" spans="3:13" hidden="1">
+    <row r="55" spans="3:13">
       <c r="C55" t="s">
         <v>66</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="56" spans="3:13" hidden="1">
+    <row r="56" spans="3:13">
       <c r="C56" t="s">
         <v>67</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="57" spans="3:13" hidden="1">
+    <row r="57" spans="3:13">
       <c r="C57" t="s">
         <v>68</v>
       </c>
@@ -6068,7 +6068,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="58" spans="3:13" hidden="1">
+    <row r="58" spans="3:13">
       <c r="C58" t="s">
         <v>69</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="59" spans="3:13" hidden="1">
+    <row r="59" spans="3:13">
       <c r="C59" t="s">
         <v>70</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="60" spans="3:13" hidden="1">
+    <row r="60" spans="3:13">
       <c r="C60" t="s">
         <v>71</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="61" spans="3:13" hidden="1">
+    <row r="61" spans="3:13">
       <c r="C61" t="s">
         <v>72</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="62" spans="3:13" hidden="1">
+    <row r="62" spans="3:13">
       <c r="C62" t="s">
         <v>73</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="63" spans="3:13" hidden="1">
+    <row r="63" spans="3:13">
       <c r="C63" t="s">
         <v>74</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="64" spans="3:13" hidden="1">
+    <row r="64" spans="3:13">
       <c r="C64" t="s">
         <v>75</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="65" spans="3:13" hidden="1">
+    <row r="65" spans="3:13">
       <c r="C65" t="s">
         <v>76</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="66" spans="3:13" hidden="1">
+    <row r="66" spans="3:13">
       <c r="C66" t="s">
         <v>77</v>
       </c>
@@ -6284,7 +6284,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="67" spans="3:13" hidden="1">
+    <row r="67" spans="3:13">
       <c r="C67" t="s">
         <v>78</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="68" spans="3:13" hidden="1">
+    <row r="68" spans="3:13">
       <c r="C68" t="s">
         <v>79</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="69" spans="3:13" hidden="1">
+    <row r="69" spans="3:13">
       <c r="C69" t="s">
         <v>80</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="70" spans="3:13" hidden="1">
+    <row r="70" spans="3:13">
       <c r="C70" t="s">
         <v>81</v>
       </c>
@@ -6370,7 +6370,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="71" spans="3:13" hidden="1">
+    <row r="71" spans="3:13">
       <c r="C71" t="s">
         <v>82</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="72" spans="3:13" hidden="1">
+    <row r="72" spans="3:13">
       <c r="C72" t="s">
         <v>83</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="74" spans="3:13" hidden="1">
+    <row r="74" spans="3:13">
       <c r="C74" t="s">
         <v>85</v>
       </c>
@@ -6465,7 +6465,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="75" spans="3:13" hidden="1">
+    <row r="75" spans="3:13">
       <c r="C75" t="s">
         <v>86</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="76" spans="3:13" hidden="1">
+    <row r="76" spans="3:13">
       <c r="C76" t="s">
         <v>87</v>
       </c>
@@ -6505,7 +6505,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="77" spans="3:13" hidden="1">
+    <row r="77" spans="3:13">
       <c r="C77" t="s">
         <v>88</v>
       </c>
@@ -6522,7 +6522,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="78" spans="3:13" hidden="1">
+    <row r="78" spans="3:13">
       <c r="C78" t="s">
         <v>89</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="79" spans="3:13" hidden="1">
+    <row r="79" spans="3:13">
       <c r="C79" t="s">
         <v>90</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="80" spans="3:13" hidden="1">
+    <row r="80" spans="3:13">
       <c r="C80" t="s">
         <v>91</v>
       </c>
@@ -6582,7 +6582,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="81" spans="3:13" hidden="1">
+    <row r="81" spans="3:13">
       <c r="C81" t="s">
         <v>92</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="82" spans="3:13" hidden="1">
+    <row r="82" spans="3:13">
       <c r="C82" t="s">
         <v>93</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="83" spans="3:13" hidden="1">
+    <row r="83" spans="3:13">
       <c r="C83" t="s">
         <v>94</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="84" spans="3:13">
+    <row r="84" spans="3:13" hidden="1">
       <c r="C84" t="s">
         <v>95</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="85" spans="3:13" hidden="1">
+    <row r="85" spans="3:13">
       <c r="C85" t="s">
         <v>96</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="86" spans="3:13" hidden="1">
+    <row r="86" spans="3:13">
       <c r="C86" t="s">
         <v>97</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="87" spans="3:13" hidden="1">
+    <row r="87" spans="3:13">
       <c r="C87" t="s">
         <v>98</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="89" spans="3:13" hidden="1">
+    <row r="89" spans="3:13">
       <c r="C89" t="s">
         <v>100</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="90" spans="3:13" hidden="1">
+    <row r="90" spans="3:13">
       <c r="C90" t="s">
         <v>101</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="91" spans="3:13" hidden="1">
+    <row r="91" spans="3:13">
       <c r="C91" t="s">
         <v>102</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="92" spans="3:13" hidden="1">
+    <row r="92" spans="3:13">
       <c r="C92" t="s">
         <v>103</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="93" spans="3:13" hidden="1">
+    <row r="93" spans="3:13">
       <c r="C93" t="s">
         <v>104</v>
       </c>
@@ -6875,7 +6875,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="94" spans="3:13" hidden="1">
+    <row r="94" spans="3:13">
       <c r="C94" t="s">
         <v>105</v>
       </c>
@@ -6898,7 +6898,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="95" spans="3:13">
+    <row r="95" spans="3:13" hidden="1">
       <c r="C95" t="s">
         <v>106</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="96" spans="3:13" hidden="1">
+    <row r="96" spans="3:13">
       <c r="C96" t="s">
         <v>107</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="97" spans="3:13" hidden="1">
+    <row r="97" spans="3:13">
       <c r="C97" t="s">
         <v>108</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="98" spans="3:13" hidden="1">
+    <row r="98" spans="3:13">
       <c r="C98" t="s">
         <v>109</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="99" spans="3:13" hidden="1">
+    <row r="99" spans="3:13">
       <c r="C99" t="s">
         <v>110</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="100" spans="3:13" hidden="1">
+    <row r="100" spans="3:13">
       <c r="C100" t="s">
         <v>111</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="101" spans="3:13" hidden="1">
+    <row r="101" spans="3:13">
       <c r="C101" t="s">
         <v>112</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="102" spans="3:13" hidden="1">
+    <row r="102" spans="3:13">
       <c r="C102" t="s">
         <v>113</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="103" spans="3:13" hidden="1">
+    <row r="103" spans="3:13">
       <c r="C103" t="s">
         <v>114</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="104" spans="3:13" hidden="1">
+    <row r="104" spans="3:13">
       <c r="C104" t="s">
         <v>115</v>
       </c>
@@ -7122,7 +7122,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="105" spans="3:13" hidden="1">
+    <row r="105" spans="3:13">
       <c r="C105" t="s">
         <v>116</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="106" spans="3:13">
+    <row r="106" spans="3:13" hidden="1">
       <c r="C106" t="s">
         <v>117</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="107" spans="3:13" hidden="1">
+    <row r="107" spans="3:13">
       <c r="C107" t="s">
         <v>118</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="108" spans="3:13" hidden="1">
+    <row r="108" spans="3:13">
       <c r="C108" t="s">
         <v>119</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="109" spans="3:13">
+    <row r="109" spans="3:13" hidden="1">
       <c r="C109" t="s">
         <v>120</v>
       </c>
@@ -7255,7 +7255,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="110" spans="3:13" hidden="1">
+    <row r="110" spans="3:13">
       <c r="C110" t="s">
         <v>121</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="111" spans="3:13">
+    <row r="111" spans="3:13" hidden="1">
       <c r="C111" t="s">
         <v>122</v>
       </c>
@@ -7307,7 +7307,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="112" spans="3:13" hidden="1">
+    <row r="112" spans="3:13">
       <c r="C112" t="s">
         <v>123</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="113" spans="3:13" hidden="1">
+    <row r="113" spans="3:13">
       <c r="C113" t="s">
         <v>124</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="114" spans="3:13" hidden="1">
+    <row r="114" spans="3:13">
       <c r="C114" t="s">
         <v>125</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="119" spans="3:13" hidden="1">
+    <row r="119" spans="3:13">
       <c r="C119" t="s">
         <v>130</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="121" spans="3:13" hidden="1">
+    <row r="121" spans="3:13">
       <c r="C121" t="s">
         <v>132</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="124" spans="3:13" hidden="1">
+    <row r="124" spans="3:13">
       <c r="C124" t="s">
         <v>135</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="125" spans="3:13" hidden="1">
+    <row r="125" spans="3:13">
       <c r="C125" t="s">
         <v>136</v>
       </c>
@@ -7643,6 +7643,9 @@
       <c r="H125" t="s">
         <v>984</v>
       </c>
+      <c r="K125">
+        <v>4</v>
+      </c>
       <c r="L125" t="s">
         <v>1273</v>
       </c>
@@ -7650,7 +7653,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="126" spans="3:13" hidden="1">
+    <row r="126" spans="3:13">
       <c r="C126" t="s">
         <v>137</v>
       </c>
@@ -7673,7 +7676,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="127" spans="3:13" hidden="1">
+    <row r="127" spans="3:13">
       <c r="C127" t="s">
         <v>138</v>
       </c>
@@ -7693,7 +7696,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="128" spans="3:13" hidden="1">
+    <row r="128" spans="3:13">
       <c r="C128" t="s">
         <v>139</v>
       </c>
@@ -7716,7 +7719,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="129" spans="3:13" hidden="1">
+    <row r="129" spans="3:13">
       <c r="C129" t="s">
         <v>140</v>
       </c>
@@ -7739,7 +7742,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="130" spans="3:13" hidden="1">
+    <row r="130" spans="3:13">
       <c r="C130" t="s">
         <v>141</v>
       </c>
@@ -7762,7 +7765,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="131" spans="3:13" hidden="1">
+    <row r="131" spans="3:13">
       <c r="C131" t="s">
         <v>142</v>
       </c>
@@ -7785,7 +7788,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="132" spans="3:13" hidden="1">
+    <row r="132" spans="3:13">
       <c r="C132" t="s">
         <v>143</v>
       </c>
@@ -7808,7 +7811,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="133" spans="3:13" hidden="1">
+    <row r="133" spans="3:13">
       <c r="C133" t="s">
         <v>144</v>
       </c>
@@ -7831,7 +7834,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="134" spans="3:13" hidden="1">
+    <row r="134" spans="3:13">
       <c r="C134" t="s">
         <v>145</v>
       </c>
@@ -7851,7 +7854,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="135" spans="3:13" hidden="1">
+    <row r="135" spans="3:13">
       <c r="C135" t="s">
         <v>146</v>
       </c>
@@ -7932,7 +7935,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="138" spans="3:13" hidden="1">
+    <row r="138" spans="3:13">
       <c r="C138" t="s">
         <v>149</v>
       </c>
@@ -7955,7 +7958,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="139" spans="3:13" hidden="1">
+    <row r="139" spans="3:13">
       <c r="C139" t="s">
         <v>150</v>
       </c>
@@ -7975,7 +7978,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="140" spans="3:13" hidden="1">
+    <row r="140" spans="3:13">
       <c r="C140" t="s">
         <v>151</v>
       </c>
@@ -7998,7 +8001,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="141" spans="3:13" hidden="1">
+    <row r="141" spans="3:13">
       <c r="C141" t="s">
         <v>152</v>
       </c>
@@ -8024,7 +8027,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="142" spans="3:13" hidden="1">
+    <row r="142" spans="3:13">
       <c r="C142" t="s">
         <v>153</v>
       </c>
@@ -8047,7 +8050,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="143" spans="3:13">
+    <row r="143" spans="3:13" hidden="1">
       <c r="C143" t="s">
         <v>154</v>
       </c>
@@ -8076,7 +8079,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="144" spans="3:13" hidden="1">
+    <row r="144" spans="3:13">
       <c r="C144" t="s">
         <v>155</v>
       </c>
@@ -8096,7 +8099,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="145" spans="3:13" hidden="1">
+    <row r="145" spans="3:13">
       <c r="C145" t="s">
         <v>156</v>
       </c>
@@ -8113,7 +8116,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="146" spans="3:13" hidden="1">
+    <row r="146" spans="3:13">
       <c r="C146" t="s">
         <v>157</v>
       </c>
@@ -8133,7 +8136,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="147" spans="3:13" hidden="1">
+    <row r="147" spans="3:13">
       <c r="C147" t="s">
         <v>158</v>
       </c>
@@ -8149,6 +8152,9 @@
       <c r="H147" t="s">
         <v>1002</v>
       </c>
+      <c r="K147">
+        <v>4</v>
+      </c>
       <c r="L147" t="s">
         <v>1273</v>
       </c>
@@ -8156,7 +8162,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="148" spans="3:13" hidden="1">
+    <row r="148" spans="3:13">
       <c r="C148" t="s">
         <v>159</v>
       </c>
@@ -8182,7 +8188,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="149" spans="3:13" hidden="1">
+    <row r="149" spans="3:13">
       <c r="C149" t="s">
         <v>160</v>
       </c>
@@ -8202,7 +8208,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="150" spans="3:13" hidden="1">
+    <row r="150" spans="3:13">
       <c r="C150" t="s">
         <v>161</v>
       </c>
@@ -8218,6 +8224,9 @@
       <c r="H150" t="s">
         <v>1002</v>
       </c>
+      <c r="K150">
+        <v>4</v>
+      </c>
       <c r="L150" t="s">
         <v>1273</v>
       </c>
@@ -8225,7 +8234,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="151" spans="3:13" hidden="1">
+    <row r="151" spans="3:13">
       <c r="C151" t="s">
         <v>162</v>
       </c>
@@ -8251,7 +8260,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="152" spans="3:13" hidden="1">
+    <row r="152" spans="3:13">
       <c r="C152" t="s">
         <v>163</v>
       </c>
@@ -8271,7 +8280,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="153" spans="3:13" hidden="1">
+    <row r="153" spans="3:13">
       <c r="C153" t="s">
         <v>164</v>
       </c>
@@ -8323,7 +8332,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="155" spans="3:13" hidden="1">
+    <row r="155" spans="3:13">
       <c r="C155" t="s">
         <v>166</v>
       </c>
@@ -8349,7 +8358,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="156" spans="3:13" hidden="1">
+    <row r="156" spans="3:13">
       <c r="C156" t="s">
         <v>167</v>
       </c>
@@ -8372,7 +8381,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="157" spans="3:13" hidden="1">
+    <row r="157" spans="3:13">
       <c r="C157" t="s">
         <v>168</v>
       </c>
@@ -8424,7 +8433,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="159" spans="3:13" hidden="1">
+    <row r="159" spans="3:13">
       <c r="C159" t="s">
         <v>170</v>
       </c>
@@ -8470,7 +8479,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="161" spans="3:13" hidden="1">
+    <row r="161" spans="3:13">
       <c r="C161" t="s">
         <v>172</v>
       </c>
@@ -8487,7 +8496,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="162" spans="3:13" hidden="1">
+    <row r="162" spans="3:13">
       <c r="C162" t="s">
         <v>173</v>
       </c>
@@ -8562,7 +8571,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="165" spans="3:13" hidden="1">
+    <row r="165" spans="3:13">
       <c r="C165" t="s">
         <v>176</v>
       </c>
@@ -8585,7 +8594,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="166" spans="3:13" hidden="1">
+    <row r="166" spans="3:13">
       <c r="C166" t="s">
         <v>177</v>
       </c>
@@ -8611,7 +8620,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="167" spans="3:13" hidden="1">
+    <row r="167" spans="3:13">
       <c r="C167" t="s">
         <v>178</v>
       </c>
@@ -8637,7 +8646,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="168" spans="3:13" hidden="1">
+    <row r="168" spans="3:13">
       <c r="C168" t="s">
         <v>179</v>
       </c>
@@ -8660,7 +8669,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="169" spans="3:13" hidden="1">
+    <row r="169" spans="3:13">
       <c r="C169" t="s">
         <v>180</v>
       </c>
@@ -8680,7 +8689,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="170" spans="3:13" hidden="1">
+    <row r="170" spans="3:13">
       <c r="C170" t="s">
         <v>181</v>
       </c>
@@ -8703,7 +8712,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="171" spans="3:13" hidden="1">
+    <row r="171" spans="3:13">
       <c r="C171" t="s">
         <v>182</v>
       </c>
@@ -8726,7 +8735,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="172" spans="3:13" hidden="1">
+    <row r="172" spans="3:13">
       <c r="C172" t="s">
         <v>183</v>
       </c>
@@ -8752,7 +8761,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="173" spans="3:13" hidden="1">
+    <row r="173" spans="3:13">
       <c r="C173" t="s">
         <v>184</v>
       </c>
@@ -8775,7 +8784,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="174" spans="3:13" hidden="1">
+    <row r="174" spans="3:13">
       <c r="C174" t="s">
         <v>185</v>
       </c>
@@ -8798,7 +8807,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="175" spans="3:13" hidden="1">
+    <row r="175" spans="3:13">
       <c r="C175" t="s">
         <v>186</v>
       </c>
@@ -8814,6 +8823,9 @@
       <c r="H175" t="s">
         <v>1025</v>
       </c>
+      <c r="K175">
+        <v>4</v>
+      </c>
       <c r="L175" t="s">
         <v>1273</v>
       </c>
@@ -8821,7 +8833,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="176" spans="3:13" hidden="1">
+    <row r="176" spans="3:13">
       <c r="C176" t="s">
         <v>187</v>
       </c>
@@ -8844,7 +8856,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="177" spans="3:13" hidden="1">
+    <row r="177" spans="3:13">
       <c r="C177" t="s">
         <v>188</v>
       </c>
@@ -8867,7 +8879,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="178" spans="3:13" hidden="1">
+    <row r="178" spans="3:13">
       <c r="C178" t="s">
         <v>189</v>
       </c>
@@ -8890,7 +8902,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="179" spans="3:13" hidden="1">
+    <row r="179" spans="3:13">
       <c r="C179" t="s">
         <v>190</v>
       </c>
@@ -8913,7 +8925,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="180" spans="3:13" hidden="1">
+    <row r="180" spans="3:13">
       <c r="C180" t="s">
         <v>191</v>
       </c>
@@ -8939,7 +8951,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="181" spans="3:13" hidden="1">
+    <row r="181" spans="3:13">
       <c r="C181" t="s">
         <v>192</v>
       </c>
@@ -8962,7 +8974,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="182" spans="3:13" hidden="1">
+    <row r="182" spans="3:13">
       <c r="C182" t="s">
         <v>193</v>
       </c>
@@ -8985,7 +8997,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="183" spans="3:13" hidden="1">
+    <row r="183" spans="3:13">
       <c r="C183" t="s">
         <v>194</v>
       </c>
@@ -9008,7 +9020,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="184" spans="3:13" hidden="1">
+    <row r="184" spans="3:13">
       <c r="C184" t="s">
         <v>195</v>
       </c>
@@ -9025,7 +9037,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="185" spans="3:13" hidden="1">
+    <row r="185" spans="3:13">
       <c r="C185" t="s">
         <v>196</v>
       </c>
@@ -9048,7 +9060,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="186" spans="3:13">
+    <row r="186" spans="3:13" hidden="1">
       <c r="C186" t="s">
         <v>197</v>
       </c>
@@ -9077,7 +9089,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="187" spans="3:13" hidden="1">
+    <row r="187" spans="3:13">
       <c r="C187" t="s">
         <v>198</v>
       </c>
@@ -9100,7 +9112,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="188" spans="3:13" hidden="1">
+    <row r="188" spans="3:13">
       <c r="C188" t="s">
         <v>199</v>
       </c>
@@ -9120,7 +9132,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="189" spans="3:13" hidden="1">
+    <row r="189" spans="3:13">
       <c r="C189" t="s">
         <v>200</v>
       </c>
@@ -9146,7 +9158,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="190" spans="3:13" hidden="1">
+    <row r="190" spans="3:13">
       <c r="C190" t="s">
         <v>201</v>
       </c>
@@ -9172,7 +9184,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="191" spans="3:13" hidden="1">
+    <row r="191" spans="3:13">
       <c r="C191" t="s">
         <v>202</v>
       </c>
@@ -9198,7 +9210,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="192" spans="3:13" hidden="1">
+    <row r="192" spans="3:13">
       <c r="C192" t="s">
         <v>203</v>
       </c>
@@ -9221,7 +9233,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="193" spans="3:13" hidden="1">
+    <row r="193" spans="3:13">
       <c r="C193" t="s">
         <v>204</v>
       </c>
@@ -9247,7 +9259,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="194" spans="3:13" hidden="1">
+    <row r="194" spans="3:13">
       <c r="C194" t="s">
         <v>205</v>
       </c>
@@ -9273,7 +9285,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="195" spans="3:13">
+    <row r="195" spans="3:13" hidden="1">
       <c r="C195" t="s">
         <v>206</v>
       </c>
@@ -9302,7 +9314,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="196" spans="3:13" hidden="1">
+    <row r="196" spans="3:13">
       <c r="C196" t="s">
         <v>207</v>
       </c>
@@ -9325,7 +9337,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="197" spans="3:13" hidden="1">
+    <row r="197" spans="3:13">
       <c r="C197" t="s">
         <v>208</v>
       </c>
@@ -9380,7 +9392,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="199" spans="3:13" hidden="1">
+    <row r="199" spans="3:13">
       <c r="C199" t="s">
         <v>210</v>
       </c>
@@ -9403,7 +9415,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="200" spans="3:13" hidden="1">
+    <row r="200" spans="3:13">
       <c r="C200" t="s">
         <v>211</v>
       </c>
@@ -9429,7 +9441,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="201" spans="3:13" hidden="1">
+    <row r="201" spans="3:13">
       <c r="C201" t="s">
         <v>212</v>
       </c>
@@ -9455,7 +9467,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="202" spans="3:13" hidden="1">
+    <row r="202" spans="3:13">
       <c r="C202" t="s">
         <v>213</v>
       </c>
@@ -9478,7 +9490,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="203" spans="3:13" hidden="1">
+    <row r="203" spans="3:13">
       <c r="C203" t="s">
         <v>214</v>
       </c>
@@ -9504,7 +9516,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="204" spans="3:13" hidden="1">
+    <row r="204" spans="3:13">
       <c r="C204" t="s">
         <v>215</v>
       </c>
@@ -9530,7 +9542,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="205" spans="3:13" hidden="1">
+    <row r="205" spans="3:13">
       <c r="C205" t="s">
         <v>216</v>
       </c>
@@ -9576,7 +9588,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="207" spans="3:13" hidden="1">
+    <row r="207" spans="3:13">
       <c r="C207" t="s">
         <v>218</v>
       </c>
@@ -9599,7 +9611,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="208" spans="3:13" hidden="1">
+    <row r="208" spans="3:13">
       <c r="C208" t="s">
         <v>219</v>
       </c>
@@ -9622,7 +9634,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="209" spans="3:13" hidden="1">
+    <row r="209" spans="3:13">
       <c r="C209" t="s">
         <v>220</v>
       </c>
@@ -9642,7 +9654,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="210" spans="3:13" hidden="1">
+    <row r="210" spans="3:13">
       <c r="C210" t="s">
         <v>221</v>
       </c>
@@ -9665,7 +9677,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="211" spans="3:13">
+    <row r="211" spans="3:13" hidden="1">
       <c r="C211" t="s">
         <v>222</v>
       </c>
@@ -9691,7 +9703,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="212" spans="3:13" hidden="1">
+    <row r="212" spans="3:13">
       <c r="C212" t="s">
         <v>223</v>
       </c>
@@ -9714,7 +9726,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="213" spans="3:13">
+    <row r="213" spans="3:13" hidden="1">
       <c r="C213" t="s">
         <v>224</v>
       </c>
@@ -9740,7 +9752,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="214" spans="3:13" hidden="1">
+    <row r="214" spans="3:13">
       <c r="C214" t="s">
         <v>225</v>
       </c>
@@ -9760,7 +9772,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="215" spans="3:13" hidden="1">
+    <row r="215" spans="3:13">
       <c r="C215" t="s">
         <v>226</v>
       </c>
@@ -9786,7 +9798,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="216" spans="3:13" hidden="1">
+    <row r="216" spans="3:13">
       <c r="C216" t="s">
         <v>227</v>
       </c>
@@ -9809,7 +9821,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="217" spans="3:13" hidden="1">
+    <row r="217" spans="3:13">
       <c r="C217" t="s">
         <v>228</v>
       </c>
@@ -9829,7 +9841,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="218" spans="3:13" hidden="1">
+    <row r="218" spans="3:13">
       <c r="C218" t="s">
         <v>229</v>
       </c>
@@ -9855,7 +9867,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="219" spans="3:13" hidden="1">
+    <row r="219" spans="3:13">
       <c r="C219" t="s">
         <v>230</v>
       </c>
@@ -9878,7 +9890,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="220" spans="3:13">
+    <row r="220" spans="3:13" hidden="1">
       <c r="C220" t="s">
         <v>231</v>
       </c>
@@ -9907,7 +9919,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="221" spans="3:13" hidden="1">
+    <row r="221" spans="3:13">
       <c r="C221" t="s">
         <v>232</v>
       </c>
@@ -9930,7 +9942,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="222" spans="3:13" hidden="1">
+    <row r="222" spans="3:13">
       <c r="C222" t="s">
         <v>233</v>
       </c>
@@ -9985,7 +9997,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="224" spans="3:13" hidden="1">
+    <row r="224" spans="3:13">
       <c r="C224" t="s">
         <v>235</v>
       </c>
@@ -10008,7 +10020,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="225" spans="3:13" hidden="1">
+    <row r="225" spans="3:13">
       <c r="C225" t="s">
         <v>236</v>
       </c>
@@ -10031,7 +10043,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="226" spans="3:13" hidden="1">
+    <row r="226" spans="3:13">
       <c r="C226" t="s">
         <v>237</v>
       </c>
@@ -10051,7 +10063,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="227" spans="3:13" hidden="1">
+    <row r="227" spans="3:13">
       <c r="C227" t="s">
         <v>238</v>
       </c>
@@ -10068,7 +10080,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="228" spans="3:13" hidden="1">
+    <row r="228" spans="3:13">
       <c r="C228" t="s">
         <v>239</v>
       </c>
@@ -10091,7 +10103,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="229" spans="3:13" hidden="1">
+    <row r="229" spans="3:13">
       <c r="C229" t="s">
         <v>240</v>
       </c>
@@ -10117,7 +10129,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="230" spans="3:13" hidden="1">
+    <row r="230" spans="3:13">
       <c r="C230" t="s">
         <v>241</v>
       </c>
@@ -10137,7 +10149,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="231" spans="3:13" hidden="1">
+    <row r="231" spans="3:13">
       <c r="C231" t="s">
         <v>242</v>
       </c>
@@ -10163,7 +10175,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="232" spans="3:13" hidden="1">
+    <row r="232" spans="3:13">
       <c r="C232" t="s">
         <v>243</v>
       </c>
@@ -10319,7 +10331,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="238" spans="3:13" hidden="1">
+    <row r="238" spans="3:13">
       <c r="C238" t="s">
         <v>249</v>
       </c>
@@ -10335,6 +10347,9 @@
       <c r="H238" t="s">
         <v>1079</v>
       </c>
+      <c r="K238">
+        <v>4</v>
+      </c>
       <c r="L238" t="s">
         <v>1273</v>
       </c>
@@ -10342,7 +10357,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="239" spans="3:13">
+    <row r="239" spans="3:13" hidden="1">
       <c r="C239" t="s">
         <v>250</v>
       </c>
@@ -10371,7 +10386,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="240" spans="3:13" hidden="1">
+    <row r="240" spans="3:13">
       <c r="C240" t="s">
         <v>251</v>
       </c>
@@ -10397,7 +10412,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="241" spans="3:13" hidden="1">
+    <row r="241" spans="3:13">
       <c r="C241" t="s">
         <v>252</v>
       </c>
@@ -10443,7 +10458,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="243" spans="3:13" hidden="1">
+    <row r="243" spans="3:13">
       <c r="C243" t="s">
         <v>254</v>
       </c>
@@ -10460,7 +10475,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="244" spans="3:13" hidden="1">
+    <row r="244" spans="3:13">
       <c r="C244" t="s">
         <v>255</v>
       </c>
@@ -10483,7 +10498,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="245" spans="3:13" hidden="1">
+    <row r="245" spans="3:13">
       <c r="C245" t="s">
         <v>256</v>
       </c>
@@ -10506,7 +10521,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="246" spans="3:13" hidden="1">
+    <row r="246" spans="3:13">
       <c r="C246" t="s">
         <v>257</v>
       </c>
@@ -10532,7 +10547,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="247" spans="3:13" hidden="1">
+    <row r="247" spans="3:13">
       <c r="C247" t="s">
         <v>258</v>
       </c>
@@ -10555,7 +10570,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="248" spans="3:13" hidden="1">
+    <row r="248" spans="3:13">
       <c r="C248" t="s">
         <v>259</v>
       </c>
@@ -10578,7 +10593,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="249" spans="3:13" hidden="1">
+    <row r="249" spans="3:13">
       <c r="C249" t="s">
         <v>260</v>
       </c>
@@ -10601,7 +10616,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="250" spans="3:13" hidden="1">
+    <row r="250" spans="3:13">
       <c r="C250" t="s">
         <v>261</v>
       </c>
@@ -10624,7 +10639,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="251" spans="3:13" hidden="1">
+    <row r="251" spans="3:13">
       <c r="C251" t="s">
         <v>262</v>
       </c>
@@ -10650,7 +10665,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="252" spans="3:13" hidden="1">
+    <row r="252" spans="3:13">
       <c r="C252" t="s">
         <v>263</v>
       </c>
@@ -10667,7 +10682,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="253" spans="3:13">
+    <row r="253" spans="3:13" hidden="1">
       <c r="C253" t="s">
         <v>264</v>
       </c>
@@ -10693,7 +10708,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="254" spans="3:13" hidden="1">
+    <row r="254" spans="3:13">
       <c r="C254" t="s">
         <v>265</v>
       </c>
@@ -10716,7 +10731,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="255" spans="3:13" hidden="1">
+    <row r="255" spans="3:13">
       <c r="C255" t="s">
         <v>266</v>
       </c>
@@ -10733,7 +10748,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="256" spans="3:13">
+    <row r="256" spans="3:13" hidden="1">
       <c r="C256" t="s">
         <v>267</v>
       </c>
@@ -10762,7 +10777,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="257" spans="3:13" hidden="1">
+    <row r="257" spans="3:13">
       <c r="C257" t="s">
         <v>268</v>
       </c>
@@ -10776,7 +10791,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="258" spans="3:13" hidden="1">
+    <row r="258" spans="3:13">
       <c r="C258" t="s">
         <v>269</v>
       </c>
@@ -10795,6 +10810,9 @@
       <c r="H258" t="s">
         <v>1096</v>
       </c>
+      <c r="K258">
+        <v>4</v>
+      </c>
       <c r="L258" t="s">
         <v>1274</v>
       </c>
@@ -10802,7 +10820,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="259" spans="3:13" hidden="1">
+    <row r="259" spans="3:13">
       <c r="C259" t="s">
         <v>270</v>
       </c>
@@ -10825,7 +10843,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="260" spans="3:13" hidden="1">
+    <row r="260" spans="3:13">
       <c r="C260" t="s">
         <v>271</v>
       </c>
@@ -10841,6 +10859,9 @@
       <c r="H260" t="s">
         <v>1098</v>
       </c>
+      <c r="K260">
+        <v>4</v>
+      </c>
       <c r="L260" t="s">
         <v>1274</v>
       </c>
@@ -10848,7 +10869,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="261" spans="3:13" hidden="1">
+    <row r="261" spans="3:13">
       <c r="C261" t="s">
         <v>272</v>
       </c>
@@ -10864,11 +10885,14 @@
       <c r="H261" t="s">
         <v>1099</v>
       </c>
+      <c r="K261">
+        <v>4</v>
+      </c>
       <c r="L261" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="262" spans="3:13" hidden="1">
+    <row r="262" spans="3:13">
       <c r="C262" t="s">
         <v>273</v>
       </c>
@@ -10888,7 +10912,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="263" spans="3:13" hidden="1">
+    <row r="263" spans="3:13">
       <c r="C263" t="s">
         <v>1393</v>
       </c>
@@ -10904,11 +10928,14 @@
       <c r="H263" t="s">
         <v>1101</v>
       </c>
+      <c r="K263">
+        <v>4</v>
+      </c>
       <c r="L263" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="264" spans="3:13" hidden="1">
+    <row r="264" spans="3:13">
       <c r="C264" t="s">
         <v>274</v>
       </c>
@@ -10928,7 +10955,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="265" spans="3:13" hidden="1">
+    <row r="265" spans="3:13">
       <c r="C265" t="s">
         <v>275</v>
       </c>
@@ -10944,6 +10971,9 @@
       <c r="H265" t="s">
         <v>1103</v>
       </c>
+      <c r="K265">
+        <v>4</v>
+      </c>
       <c r="L265" t="s">
         <v>1274</v>
       </c>
@@ -10951,7 +10981,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="266" spans="3:13" hidden="1">
+    <row r="266" spans="3:13">
       <c r="C266" t="s">
         <v>276</v>
       </c>
@@ -10967,11 +10997,14 @@
       <c r="H266" t="s">
         <v>1104</v>
       </c>
+      <c r="K266">
+        <v>4</v>
+      </c>
       <c r="L266" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="267" spans="3:13" hidden="1">
+    <row r="267" spans="3:13">
       <c r="C267" t="s">
         <v>277</v>
       </c>
@@ -10991,7 +11024,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="268" spans="3:13" hidden="1">
+    <row r="268" spans="3:13">
       <c r="C268" t="s">
         <v>278</v>
       </c>
@@ -11011,7 +11044,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="269" spans="3:13" hidden="1">
+    <row r="269" spans="3:13">
       <c r="C269" t="s">
         <v>279</v>
       </c>
@@ -11027,11 +11060,14 @@
       <c r="H269" t="s">
         <v>1107</v>
       </c>
+      <c r="K269">
+        <v>4</v>
+      </c>
       <c r="L269" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="270" spans="3:13" hidden="1">
+    <row r="270" spans="3:13">
       <c r="C270" t="s">
         <v>280</v>
       </c>
@@ -11047,11 +11083,14 @@
       <c r="H270" t="s">
         <v>1108</v>
       </c>
+      <c r="K270">
+        <v>4</v>
+      </c>
       <c r="L270" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="271" spans="3:13" hidden="1">
+    <row r="271" spans="3:13">
       <c r="C271" t="s">
         <v>281</v>
       </c>
@@ -11071,7 +11110,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="272" spans="3:13" hidden="1">
+    <row r="272" spans="3:13">
       <c r="C272" t="s">
         <v>282</v>
       </c>
@@ -11094,7 +11133,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="273" spans="3:13" hidden="1">
+    <row r="273" spans="3:13">
       <c r="C273" t="s">
         <v>283</v>
       </c>
@@ -11110,6 +11149,9 @@
       <c r="H273" t="s">
         <v>1111</v>
       </c>
+      <c r="K273">
+        <v>4</v>
+      </c>
       <c r="L273" t="s">
         <v>1274</v>
       </c>
@@ -11117,7 +11159,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="274" spans="3:13" hidden="1">
+    <row r="274" spans="3:13">
       <c r="C274" t="s">
         <v>284</v>
       </c>
@@ -11136,6 +11178,9 @@
       <c r="H274" t="s">
         <v>1112</v>
       </c>
+      <c r="K274">
+        <v>4</v>
+      </c>
       <c r="L274" t="s">
         <v>1274</v>
       </c>
@@ -11143,7 +11188,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="275" spans="3:13" hidden="1">
+    <row r="275" spans="3:13">
       <c r="C275" t="s">
         <v>285</v>
       </c>
@@ -11159,6 +11204,9 @@
       <c r="H275" t="s">
         <v>1113</v>
       </c>
+      <c r="K275">
+        <v>4</v>
+      </c>
       <c r="L275" t="s">
         <v>1273</v>
       </c>
@@ -11166,7 +11214,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="276" spans="3:13" hidden="1">
+    <row r="276" spans="3:13">
       <c r="C276" t="s">
         <v>286</v>
       </c>
@@ -11189,7 +11237,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="277" spans="3:13" hidden="1">
+    <row r="277" spans="3:13">
       <c r="C277" t="s">
         <v>287</v>
       </c>
@@ -11212,7 +11260,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="278" spans="3:13" hidden="1">
+    <row r="278" spans="3:13">
       <c r="C278" t="s">
         <v>288</v>
       </c>
@@ -11229,7 +11277,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="279" spans="3:13" hidden="1">
+    <row r="279" spans="3:13">
       <c r="C279" t="s">
         <v>289</v>
       </c>
@@ -11255,7 +11303,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="280" spans="3:13" hidden="1">
+    <row r="280" spans="3:13">
       <c r="C280" t="s">
         <v>290</v>
       </c>
@@ -11278,7 +11326,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="281" spans="3:13">
+    <row r="281" spans="3:13" hidden="1">
       <c r="C281" t="s">
         <v>291</v>
       </c>
@@ -11460,7 +11508,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="288" spans="3:13" hidden="1">
+    <row r="288" spans="3:13">
       <c r="C288" t="s">
         <v>298</v>
       </c>
@@ -11509,7 +11557,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="290" spans="3:13" hidden="1">
+    <row r="290" spans="3:13">
       <c r="C290" t="s">
         <v>300</v>
       </c>
@@ -11532,7 +11580,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="291" spans="3:13" hidden="1">
+    <row r="291" spans="3:13">
       <c r="C291" t="s">
         <v>301</v>
       </c>
@@ -11555,7 +11603,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="292" spans="3:13" hidden="1">
+    <row r="292" spans="3:13">
       <c r="C292" t="s">
         <v>302</v>
       </c>
@@ -11581,7 +11629,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="293" spans="3:13" hidden="1">
+    <row r="293" spans="3:13">
       <c r="C293" t="s">
         <v>303</v>
       </c>
@@ -11604,7 +11652,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="294" spans="3:13" hidden="1">
+    <row r="294" spans="3:13">
       <c r="C294" t="s">
         <v>304</v>
       </c>
@@ -11630,7 +11678,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="295" spans="3:13" hidden="1">
+    <row r="295" spans="3:13">
       <c r="C295" t="s">
         <v>305</v>
       </c>
@@ -11656,7 +11704,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="296" spans="3:13" hidden="1">
+    <row r="296" spans="3:13">
       <c r="C296" t="s">
         <v>306</v>
       </c>
@@ -11682,7 +11730,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="297" spans="3:13" hidden="1">
+    <row r="297" spans="3:13">
       <c r="C297" t="s">
         <v>307</v>
       </c>
@@ -11708,7 +11756,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="298" spans="3:13" hidden="1">
+    <row r="298" spans="3:13">
       <c r="C298" t="s">
         <v>308</v>
       </c>
@@ -11731,7 +11779,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="299" spans="3:13" hidden="1">
+    <row r="299" spans="3:13">
       <c r="C299" t="s">
         <v>309</v>
       </c>
@@ -11754,7 +11802,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="300" spans="3:13" hidden="1">
+    <row r="300" spans="3:13">
       <c r="C300" t="s">
         <v>310</v>
       </c>
@@ -11780,7 +11828,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="301" spans="3:13" hidden="1">
+    <row r="301" spans="3:13">
       <c r="C301" t="s">
         <v>311</v>
       </c>
@@ -11803,7 +11851,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="302" spans="3:13" hidden="1">
+    <row r="302" spans="3:13">
       <c r="C302" t="s">
         <v>312</v>
       </c>
@@ -11826,7 +11874,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="303" spans="3:13" hidden="1">
+    <row r="303" spans="3:13">
       <c r="C303" t="s">
         <v>313</v>
       </c>
@@ -11849,7 +11897,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="304" spans="3:13" hidden="1">
+    <row r="304" spans="3:13">
       <c r="C304" t="s">
         <v>314</v>
       </c>
@@ -11875,7 +11923,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="305" spans="3:13" hidden="1">
+    <row r="305" spans="3:13">
       <c r="C305" t="s">
         <v>315</v>
       </c>
@@ -11901,7 +11949,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="306" spans="3:13" hidden="1">
+    <row r="306" spans="3:13">
       <c r="C306" t="s">
         <v>316</v>
       </c>
@@ -11924,7 +11972,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="307" spans="3:13" hidden="1">
+    <row r="307" spans="3:13">
       <c r="C307" t="s">
         <v>317</v>
       </c>
@@ -11941,7 +11989,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="308" spans="3:13" hidden="1">
+    <row r="308" spans="3:13">
       <c r="C308" t="s">
         <v>318</v>
       </c>
@@ -11955,7 +12003,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="309" spans="3:13" hidden="1">
+    <row r="309" spans="3:13">
       <c r="C309" t="s">
         <v>319</v>
       </c>
@@ -11972,7 +12020,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="310" spans="3:13" hidden="1">
+    <row r="310" spans="3:13">
       <c r="C310" t="s">
         <v>320</v>
       </c>
@@ -11992,7 +12040,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="311" spans="3:13" hidden="1">
+    <row r="311" spans="3:13">
       <c r="C311" t="s">
         <v>321</v>
       </c>
@@ -12009,7 +12057,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="312" spans="3:13" hidden="1">
+    <row r="312" spans="3:13">
       <c r="C312" t="s">
         <v>322</v>
       </c>
@@ -12023,7 +12071,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="313" spans="3:13" hidden="1">
+    <row r="313" spans="3:13">
       <c r="C313" t="s">
         <v>323</v>
       </c>
@@ -12037,7 +12085,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="314" spans="3:13" hidden="1">
+    <row r="314" spans="3:13">
       <c r="C314" t="s">
         <v>324</v>
       </c>
@@ -12054,7 +12102,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="315" spans="3:13" hidden="1">
+    <row r="315" spans="3:13">
       <c r="C315" t="s">
         <v>325</v>
       </c>
@@ -12080,7 +12128,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="316" spans="3:13" hidden="1">
+    <row r="316" spans="3:13">
       <c r="C316" t="s">
         <v>326</v>
       </c>
@@ -12100,7 +12148,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="317" spans="3:13" hidden="1">
+    <row r="317" spans="3:13">
       <c r="C317" t="s">
         <v>327</v>
       </c>
@@ -12126,7 +12174,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="318" spans="3:13" hidden="1">
+    <row r="318" spans="3:13">
       <c r="C318" t="s">
         <v>328</v>
       </c>
@@ -12146,7 +12194,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="319" spans="3:13" hidden="1">
+    <row r="319" spans="3:13">
       <c r="C319" t="s">
         <v>329</v>
       </c>
@@ -12163,7 +12211,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="320" spans="3:13" hidden="1">
+    <row r="320" spans="3:13">
       <c r="C320" t="s">
         <v>330</v>
       </c>
@@ -12183,7 +12231,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="321" spans="3:13" hidden="1">
+    <row r="321" spans="3:13">
       <c r="C321" t="s">
         <v>331</v>
       </c>
@@ -12203,7 +12251,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="322" spans="3:13" hidden="1">
+    <row r="322" spans="3:13">
       <c r="C322" t="s">
         <v>332</v>
       </c>
@@ -12223,7 +12271,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="323" spans="3:13" hidden="1">
+    <row r="323" spans="3:13">
       <c r="C323" t="s">
         <v>333</v>
       </c>
@@ -12240,7 +12288,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="324" spans="3:13" hidden="1">
+    <row r="324" spans="3:13">
       <c r="C324" t="s">
         <v>334</v>
       </c>
@@ -12263,7 +12311,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="325" spans="3:13" hidden="1">
+    <row r="325" spans="3:13">
       <c r="C325" t="s">
         <v>335</v>
       </c>
@@ -12286,7 +12334,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="326" spans="3:13" hidden="1">
+    <row r="326" spans="3:13">
       <c r="C326" t="s">
         <v>336</v>
       </c>
@@ -12303,7 +12351,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="327" spans="3:13" hidden="1">
+    <row r="327" spans="3:13">
       <c r="C327" t="s">
         <v>337</v>
       </c>
@@ -12326,7 +12374,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="328" spans="3:13" hidden="1">
+    <row r="328" spans="3:13">
       <c r="C328" t="s">
         <v>338</v>
       </c>
@@ -12346,7 +12394,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="329" spans="3:13" hidden="1">
+    <row r="329" spans="3:13">
       <c r="C329" t="s">
         <v>339</v>
       </c>
@@ -12369,7 +12417,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="330" spans="3:13" hidden="1">
+    <row r="330" spans="3:13">
       <c r="C330" t="s">
         <v>340</v>
       </c>
@@ -12386,7 +12434,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="331" spans="3:13" hidden="1">
+    <row r="331" spans="3:13">
       <c r="C331" t="s">
         <v>341</v>
       </c>
@@ -12403,7 +12451,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="332" spans="3:13" hidden="1">
+    <row r="332" spans="3:13">
       <c r="C332" t="s">
         <v>342</v>
       </c>
@@ -12420,7 +12468,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="333" spans="3:13" hidden="1">
+    <row r="333" spans="3:13">
       <c r="C333" t="s">
         <v>343</v>
       </c>
@@ -12443,7 +12491,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="334" spans="3:13" hidden="1">
+    <row r="334" spans="3:13">
       <c r="C334" t="s">
         <v>344</v>
       </c>
@@ -12463,7 +12511,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="335" spans="3:13" hidden="1">
+    <row r="335" spans="3:13">
       <c r="C335" t="s">
         <v>345</v>
       </c>
@@ -12480,7 +12528,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="336" spans="3:13" hidden="1">
+    <row r="336" spans="3:13">
       <c r="C336" t="s">
         <v>346</v>
       </c>
@@ -12503,7 +12551,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="337" spans="3:13" hidden="1">
+    <row r="337" spans="3:13">
       <c r="C337" t="s">
         <v>347</v>
       </c>
@@ -12523,7 +12571,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="338" spans="3:13" hidden="1">
+    <row r="338" spans="3:13">
       <c r="C338" t="s">
         <v>348</v>
       </c>
@@ -12543,7 +12591,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="339" spans="3:13" hidden="1">
+    <row r="339" spans="3:13">
       <c r="C339" t="s">
         <v>349</v>
       </c>
@@ -12566,7 +12614,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="340" spans="3:13" hidden="1">
+    <row r="340" spans="3:13">
       <c r="C340" t="s">
         <v>350</v>
       </c>
@@ -12589,7 +12637,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="341" spans="3:13" hidden="1">
+    <row r="341" spans="3:13">
       <c r="C341" t="s">
         <v>351</v>
       </c>
@@ -12612,7 +12660,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="342" spans="3:13" hidden="1">
+    <row r="342" spans="3:13">
       <c r="C342" t="s">
         <v>352</v>
       </c>
@@ -12638,7 +12686,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="343" spans="3:13" hidden="1">
+    <row r="343" spans="3:13">
       <c r="C343" t="s">
         <v>353</v>
       </c>
@@ -12658,7 +12706,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="344" spans="3:13" hidden="1">
+    <row r="344" spans="3:13">
       <c r="C344" t="s">
         <v>354</v>
       </c>
@@ -12681,7 +12729,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="345" spans="3:13" hidden="1">
+    <row r="345" spans="3:13">
       <c r="C345" t="s">
         <v>355</v>
       </c>
@@ -12704,7 +12752,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="346" spans="3:13" hidden="1">
+    <row r="346" spans="3:13">
       <c r="C346" t="s">
         <v>356</v>
       </c>
@@ -12727,7 +12775,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="347" spans="3:13" hidden="1">
+    <row r="347" spans="3:13">
       <c r="C347" t="s">
         <v>357</v>
       </c>
@@ -12750,7 +12798,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="348" spans="3:13" hidden="1">
+    <row r="348" spans="3:13">
       <c r="C348" t="s">
         <v>358</v>
       </c>
@@ -12773,7 +12821,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="349" spans="3:13" hidden="1">
+    <row r="349" spans="3:13">
       <c r="C349" t="s">
         <v>359</v>
       </c>
@@ -12793,7 +12841,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="350" spans="3:13" hidden="1">
+    <row r="350" spans="3:13">
       <c r="C350" t="s">
         <v>360</v>
       </c>
@@ -12816,7 +12864,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="351" spans="3:13" hidden="1">
+    <row r="351" spans="3:13">
       <c r="C351" t="s">
         <v>361</v>
       </c>
@@ -12839,7 +12887,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="352" spans="3:13" hidden="1">
+    <row r="352" spans="3:13">
       <c r="C352" t="s">
         <v>362</v>
       </c>
@@ -12960,7 +13008,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="357" spans="3:13" hidden="1">
+    <row r="357" spans="3:13">
       <c r="C357" t="s">
         <v>366</v>
       </c>
@@ -12980,7 +13028,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="358" spans="3:13" hidden="1">
+    <row r="358" spans="3:13">
       <c r="C358" t="s">
         <v>367</v>
       </c>
@@ -13000,7 +13048,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="359" spans="3:13">
+    <row r="359" spans="3:13" hidden="1">
       <c r="C359" t="s">
         <v>368</v>
       </c>
@@ -13055,7 +13103,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="361" spans="3:13" hidden="1">
+    <row r="361" spans="3:13">
       <c r="C361" t="s">
         <v>370</v>
       </c>
@@ -13081,7 +13129,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="362" spans="3:13" hidden="1">
+    <row r="362" spans="3:13">
       <c r="C362" t="s">
         <v>371</v>
       </c>
@@ -13104,7 +13152,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="363" spans="3:13">
+    <row r="363" spans="3:13" hidden="1">
       <c r="C363" t="s">
         <v>372</v>
       </c>
@@ -13188,7 +13236,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="366" spans="3:13" hidden="1">
+    <row r="366" spans="3:13">
       <c r="C366" t="s">
         <v>375</v>
       </c>
@@ -13211,7 +13259,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="367" spans="3:13" hidden="1">
+    <row r="367" spans="3:13">
       <c r="C367" t="s">
         <v>376</v>
       </c>
@@ -13231,7 +13279,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="368" spans="3:13" hidden="1">
+    <row r="368" spans="3:13">
       <c r="C368" t="s">
         <v>377</v>
       </c>
@@ -13254,7 +13302,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="369" spans="3:13" hidden="1">
+    <row r="369" spans="3:13">
       <c r="C369" t="s">
         <v>378</v>
       </c>
@@ -13277,7 +13325,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="370" spans="3:13" hidden="1">
+    <row r="370" spans="3:13">
       <c r="C370" t="s">
         <v>379</v>
       </c>
@@ -13294,7 +13342,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="371" spans="3:13" hidden="1">
+    <row r="371" spans="3:13">
       <c r="C371" t="s">
         <v>380</v>
       </c>
@@ -13314,7 +13362,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="372" spans="3:13" hidden="1">
+    <row r="372" spans="3:13">
       <c r="C372" t="s">
         <v>381</v>
       </c>
@@ -13337,7 +13385,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="373" spans="3:13" hidden="1">
+    <row r="373" spans="3:13">
       <c r="C373" t="s">
         <v>382</v>
       </c>
@@ -13360,7 +13408,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="374" spans="3:13" hidden="1">
+    <row r="374" spans="3:13">
       <c r="C374" t="s">
         <v>383</v>
       </c>
@@ -13383,7 +13431,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="375" spans="3:13" hidden="1">
+    <row r="375" spans="3:13">
       <c r="C375" t="s">
         <v>384</v>
       </c>
@@ -13409,7 +13457,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="376" spans="3:13" hidden="1">
+    <row r="376" spans="3:13">
       <c r="C376" t="s">
         <v>385</v>
       </c>
@@ -13432,7 +13480,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="377" spans="3:13" hidden="1">
+    <row r="377" spans="3:13">
       <c r="C377" t="s">
         <v>386</v>
       </c>
@@ -13481,7 +13529,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="379" spans="3:13" hidden="1">
+    <row r="379" spans="3:13">
       <c r="C379" t="s">
         <v>388</v>
       </c>
@@ -13507,7 +13555,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="380" spans="3:13" hidden="1">
+    <row r="380" spans="3:13">
       <c r="C380" t="s">
         <v>389</v>
       </c>
@@ -13533,7 +13581,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="381" spans="3:13" hidden="1">
+    <row r="381" spans="3:13">
       <c r="C381" t="s">
         <v>390</v>
       </c>
@@ -13582,7 +13630,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="383" spans="3:13" hidden="1">
+    <row r="383" spans="3:13">
       <c r="C383" t="s">
         <v>392</v>
       </c>
@@ -13631,7 +13679,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="385" spans="3:13" hidden="1">
+    <row r="385" spans="3:13">
       <c r="C385" t="s">
         <v>394</v>
       </c>
@@ -13654,7 +13702,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="386" spans="3:13" hidden="1">
+    <row r="386" spans="3:13">
       <c r="C386" t="s">
         <v>395</v>
       </c>
@@ -13677,7 +13725,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="387" spans="3:13" hidden="1">
+    <row r="387" spans="3:13">
       <c r="C387" t="s">
         <v>396</v>
       </c>
@@ -13700,7 +13748,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="388" spans="3:13" hidden="1">
+    <row r="388" spans="3:13">
       <c r="C388" t="s">
         <v>397</v>
       </c>
@@ -13720,7 +13768,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="389" spans="3:13" hidden="1">
+    <row r="389" spans="3:13">
       <c r="C389" t="s">
         <v>398</v>
       </c>
@@ -13746,7 +13794,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="390" spans="3:13" hidden="1">
+    <row r="390" spans="3:13">
       <c r="C390" t="s">
         <v>399</v>
       </c>
@@ -13769,7 +13817,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="391" spans="3:13" hidden="1">
+    <row r="391" spans="3:13">
       <c r="C391" t="s">
         <v>400</v>
       </c>
@@ -13792,7 +13840,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="392" spans="3:13" hidden="1">
+    <row r="392" spans="3:13">
       <c r="C392" t="s">
         <v>401</v>
       </c>
@@ -13815,7 +13863,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="393" spans="3:13" hidden="1">
+    <row r="393" spans="3:13">
       <c r="C393" t="s">
         <v>402</v>
       </c>
@@ -13841,7 +13889,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="394" spans="3:13" hidden="1">
+    <row r="394" spans="3:13">
       <c r="C394" t="s">
         <v>403</v>
       </c>
@@ -13864,7 +13912,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="395" spans="3:13" hidden="1">
+    <row r="395" spans="3:13">
       <c r="C395" t="s">
         <v>404</v>
       </c>
@@ -13881,7 +13929,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="396" spans="3:13" hidden="1">
+    <row r="396" spans="3:13">
       <c r="C396" t="s">
         <v>405</v>
       </c>
@@ -13904,7 +13952,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="397" spans="3:13" hidden="1">
+    <row r="397" spans="3:13">
       <c r="C397" t="s">
         <v>406</v>
       </c>
@@ -13921,7 +13969,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="398" spans="3:13" hidden="1">
+    <row r="398" spans="3:13">
       <c r="C398" t="s">
         <v>407</v>
       </c>
@@ -13947,7 +13995,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="399" spans="3:13" hidden="1">
+    <row r="399" spans="3:13">
       <c r="C399" t="s">
         <v>408</v>
       </c>
@@ -13970,7 +14018,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="400" spans="3:13" hidden="1">
+    <row r="400" spans="3:13">
       <c r="C400" t="s">
         <v>409</v>
       </c>
@@ -13987,7 +14035,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="401" spans="3:13">
+    <row r="401" spans="3:13" hidden="1">
       <c r="C401" t="s">
         <v>410</v>
       </c>
@@ -14013,7 +14061,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="402" spans="3:13" hidden="1">
+    <row r="402" spans="3:13">
       <c r="C402" t="s">
         <v>411</v>
       </c>
@@ -14028,6 +14076,9 @@
       </c>
       <c r="H402" t="s">
         <v>1113</v>
+      </c>
+      <c r="K402">
+        <v>4</v>
       </c>
       <c r="L402" t="s">
         <v>1272</v>
@@ -14062,7 +14113,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="404" spans="3:13" hidden="1">
+    <row r="404" spans="3:13">
       <c r="C404" t="s">
         <v>413</v>
       </c>
@@ -14078,6 +14129,9 @@
       <c r="H404" t="s">
         <v>1111</v>
       </c>
+      <c r="K404">
+        <v>4</v>
+      </c>
       <c r="L404" t="s">
         <v>1273</v>
       </c>
@@ -14085,7 +14139,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="405" spans="3:13" hidden="1">
+    <row r="405" spans="3:13">
       <c r="C405" t="s">
         <v>414</v>
       </c>
@@ -14101,6 +14155,9 @@
       <c r="H405" t="s">
         <v>1108</v>
       </c>
+      <c r="K405">
+        <v>4</v>
+      </c>
       <c r="L405" t="s">
         <v>1273</v>
       </c>
@@ -14108,7 +14165,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="406" spans="3:13" hidden="1">
+    <row r="406" spans="3:13">
       <c r="C406" t="s">
         <v>415</v>
       </c>
@@ -14124,6 +14181,9 @@
       <c r="H406" t="s">
         <v>1107</v>
       </c>
+      <c r="K406">
+        <v>4</v>
+      </c>
       <c r="L406" t="s">
         <v>1273</v>
       </c>
@@ -14131,7 +14191,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="407" spans="3:13" hidden="1">
+    <row r="407" spans="3:13">
       <c r="C407" t="s">
         <v>416</v>
       </c>
@@ -14147,6 +14207,9 @@
       <c r="H407" t="s">
         <v>1104</v>
       </c>
+      <c r="K407">
+        <v>4</v>
+      </c>
       <c r="L407" t="s">
         <v>1273</v>
       </c>
@@ -14154,7 +14217,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="408" spans="3:13" hidden="1">
+    <row r="408" spans="3:13">
       <c r="C408" t="s">
         <v>417</v>
       </c>
@@ -14170,6 +14233,9 @@
       <c r="H408" t="s">
         <v>1101</v>
       </c>
+      <c r="K408">
+        <v>4</v>
+      </c>
       <c r="L408" t="s">
         <v>1273</v>
       </c>
@@ -14177,7 +14243,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="409" spans="3:13" hidden="1">
+    <row r="409" spans="3:13">
       <c r="C409" t="s">
         <v>418</v>
       </c>
@@ -14193,6 +14259,9 @@
       <c r="H409" t="s">
         <v>1099</v>
       </c>
+      <c r="K409">
+        <v>4</v>
+      </c>
       <c r="L409" t="s">
         <v>1273</v>
       </c>
@@ -14200,7 +14269,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="410" spans="3:13" hidden="1">
+    <row r="410" spans="3:13">
       <c r="C410" t="s">
         <v>419</v>
       </c>
@@ -14216,6 +14285,9 @@
       <c r="H410" t="s">
         <v>1098</v>
       </c>
+      <c r="K410">
+        <v>4</v>
+      </c>
       <c r="L410" t="s">
         <v>1273</v>
       </c>
@@ -14223,7 +14295,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="411" spans="3:13" hidden="1">
+    <row r="411" spans="3:13">
       <c r="C411" t="s">
         <v>420</v>
       </c>
@@ -14242,6 +14314,9 @@
       <c r="H411" t="s">
         <v>1096</v>
       </c>
+      <c r="K411">
+        <v>4</v>
+      </c>
       <c r="L411" t="s">
         <v>1273</v>
       </c>
@@ -14249,7 +14324,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="412" spans="3:13" hidden="1">
+    <row r="412" spans="3:13">
       <c r="C412" t="s">
         <v>421</v>
       </c>
@@ -14275,7 +14350,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="413" spans="3:13" hidden="1">
+    <row r="413" spans="3:13">
       <c r="C413" t="s">
         <v>422</v>
       </c>
@@ -14295,7 +14370,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="414" spans="3:13" hidden="1">
+    <row r="414" spans="3:13">
       <c r="C414" t="s">
         <v>423</v>
       </c>
@@ -14321,7 +14396,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="415" spans="3:13" hidden="1">
+    <row r="415" spans="3:13">
       <c r="C415" t="s">
         <v>424</v>
       </c>
@@ -14341,7 +14416,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="416" spans="3:13" hidden="1">
+    <row r="416" spans="3:13">
       <c r="C416" t="s">
         <v>425</v>
       </c>
@@ -14364,7 +14439,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="417" spans="3:13" hidden="1">
+    <row r="417" spans="3:13">
       <c r="C417" t="s">
         <v>426</v>
       </c>
@@ -14387,7 +14462,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="418" spans="3:13" hidden="1">
+    <row r="418" spans="3:13">
       <c r="C418" t="s">
         <v>427</v>
       </c>
@@ -14436,7 +14511,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="420" spans="3:13" hidden="1">
+    <row r="420" spans="3:13">
       <c r="C420" t="s">
         <v>429</v>
       </c>
@@ -14459,7 +14534,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="421" spans="3:13" hidden="1">
+    <row r="421" spans="3:13">
       <c r="C421" t="s">
         <v>430</v>
       </c>
@@ -14485,7 +14560,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="422" spans="3:13" hidden="1">
+    <row r="422" spans="3:13">
       <c r="C422" t="s">
         <v>431</v>
       </c>
@@ -14508,7 +14583,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="423" spans="3:13" hidden="1">
+    <row r="423" spans="3:13">
       <c r="C423" t="s">
         <v>432</v>
       </c>
@@ -14528,7 +14603,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="424" spans="3:13">
+    <row r="424" spans="3:13" hidden="1">
       <c r="C424" t="s">
         <v>433</v>
       </c>
@@ -14554,7 +14629,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="425" spans="3:13" hidden="1">
+    <row r="425" spans="3:13">
       <c r="C425" t="s">
         <v>434</v>
       </c>
@@ -14574,7 +14649,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="426" spans="3:13" hidden="1">
+    <row r="426" spans="3:13">
       <c r="C426" t="s">
         <v>435</v>
       </c>
@@ -14597,7 +14672,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="427" spans="3:13">
+    <row r="427" spans="3:13" hidden="1">
       <c r="C427" t="s">
         <v>436</v>
       </c>
@@ -14623,7 +14698,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="428" spans="3:13" hidden="1">
+    <row r="428" spans="3:13">
       <c r="C428" t="s">
         <v>437</v>
       </c>
@@ -14643,7 +14718,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="429" spans="3:13" hidden="1">
+    <row r="429" spans="3:13">
       <c r="C429" t="s">
         <v>438</v>
       </c>
@@ -14669,7 +14744,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="430" spans="3:13" hidden="1">
+    <row r="430" spans="3:13">
       <c r="C430" t="s">
         <v>439</v>
       </c>
@@ -14685,11 +14760,14 @@
       <c r="H430" t="s">
         <v>1079</v>
       </c>
+      <c r="K430">
+        <v>4</v>
+      </c>
       <c r="L430" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="431" spans="3:13" hidden="1">
+    <row r="431" spans="3:13">
       <c r="C431" t="s">
         <v>440</v>
       </c>
@@ -14715,7 +14793,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="432" spans="3:13" hidden="1">
+    <row r="432" spans="3:13">
       <c r="C432" t="s">
         <v>441</v>
       </c>
@@ -14738,7 +14816,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="433" spans="3:13" hidden="1">
+    <row r="433" spans="3:13">
       <c r="C433" t="s">
         <v>442</v>
       </c>
@@ -14764,7 +14842,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="434" spans="3:13" hidden="1">
+    <row r="434" spans="3:13">
       <c r="C434" t="s">
         <v>443</v>
       </c>
@@ -14787,7 +14865,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="435" spans="3:13" hidden="1">
+    <row r="435" spans="3:13">
       <c r="C435" t="s">
         <v>444</v>
       </c>
@@ -14810,7 +14888,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="436" spans="3:13" hidden="1">
+    <row r="436" spans="3:13">
       <c r="C436" t="s">
         <v>445</v>
       </c>
@@ -14833,7 +14911,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="437" spans="3:13" hidden="1">
+    <row r="437" spans="3:13">
       <c r="C437" t="s">
         <v>446</v>
       </c>
@@ -14856,7 +14934,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="438" spans="3:13" hidden="1">
+    <row r="438" spans="3:13">
       <c r="C438" t="s">
         <v>447</v>
       </c>
@@ -14879,7 +14957,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="439" spans="3:13" hidden="1">
+    <row r="439" spans="3:13">
       <c r="C439" t="s">
         <v>448</v>
       </c>
@@ -14902,7 +14980,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="440" spans="3:13" hidden="1">
+    <row r="440" spans="3:13">
       <c r="C440" t="s">
         <v>449</v>
       </c>
@@ -14954,7 +15032,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="442" spans="3:13" hidden="1">
+    <row r="442" spans="3:13">
       <c r="C442" t="s">
         <v>451</v>
       </c>
@@ -14977,7 +15055,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="443" spans="3:13" hidden="1">
+    <row r="443" spans="3:13">
       <c r="C443" t="s">
         <v>452</v>
       </c>
@@ -15000,7 +15078,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="444" spans="3:13" hidden="1">
+    <row r="444" spans="3:13">
       <c r="C444" t="s">
         <v>453</v>
       </c>
@@ -15023,7 +15101,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="445" spans="3:13" hidden="1">
+    <row r="445" spans="3:13">
       <c r="C445" t="s">
         <v>454</v>
       </c>
@@ -15043,7 +15121,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="446" spans="3:13" hidden="1">
+    <row r="446" spans="3:13">
       <c r="C446" t="s">
         <v>455</v>
       </c>
@@ -15063,7 +15141,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="447" spans="3:13" hidden="1">
+    <row r="447" spans="3:13">
       <c r="C447" t="s">
         <v>456</v>
       </c>
@@ -15083,7 +15161,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="448" spans="3:13" hidden="1">
+    <row r="448" spans="3:13">
       <c r="C448" t="s">
         <v>457</v>
       </c>
@@ -15103,7 +15181,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="449" spans="3:13">
+    <row r="449" spans="3:13" hidden="1">
       <c r="C449" t="s">
         <v>458</v>
       </c>
@@ -15129,7 +15207,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="450" spans="3:13" hidden="1">
+    <row r="450" spans="3:13">
       <c r="C450" t="s">
         <v>459</v>
       </c>
@@ -15152,7 +15230,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="451" spans="3:13" hidden="1">
+    <row r="451" spans="3:13">
       <c r="C451" t="s">
         <v>460</v>
       </c>
@@ -15198,7 +15276,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="453" spans="3:13" hidden="1">
+    <row r="453" spans="3:13">
       <c r="C453" t="s">
         <v>462</v>
       </c>
@@ -15221,7 +15299,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="454" spans="3:13" hidden="1">
+    <row r="454" spans="3:13">
       <c r="C454" t="s">
         <v>463</v>
       </c>
@@ -15247,7 +15325,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="455" spans="3:13">
+    <row r="455" spans="3:13" hidden="1">
       <c r="C455" t="s">
         <v>464</v>
       </c>
@@ -15276,7 +15354,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="456" spans="3:13" hidden="1">
+    <row r="456" spans="3:13">
       <c r="C456" t="s">
         <v>465</v>
       </c>
@@ -15302,7 +15380,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="457" spans="3:13" hidden="1">
+    <row r="457" spans="3:13">
       <c r="C457" t="s">
         <v>466</v>
       </c>
@@ -15328,7 +15406,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="458" spans="3:13" hidden="1">
+    <row r="458" spans="3:13">
       <c r="C458" t="s">
         <v>467</v>
       </c>
@@ -15351,7 +15429,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="459" spans="3:13" hidden="1">
+    <row r="459" spans="3:13">
       <c r="C459" t="s">
         <v>468</v>
       </c>
@@ -15377,7 +15455,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="460" spans="3:13">
+    <row r="460" spans="3:13" hidden="1">
       <c r="C460" t="s">
         <v>469</v>
       </c>
@@ -15403,7 +15481,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="461" spans="3:13" hidden="1">
+    <row r="461" spans="3:13">
       <c r="C461" t="s">
         <v>470</v>
       </c>
@@ -15429,7 +15507,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="462" spans="3:13" hidden="1">
+    <row r="462" spans="3:13">
       <c r="C462" t="s">
         <v>471</v>
       </c>
@@ -15452,7 +15530,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="463" spans="3:13" hidden="1">
+    <row r="463" spans="3:13">
       <c r="C463" t="s">
         <v>472</v>
       </c>
@@ -15472,7 +15550,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="464" spans="3:13" hidden="1">
+    <row r="464" spans="3:13">
       <c r="C464" t="s">
         <v>473</v>
       </c>
@@ -15492,7 +15570,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="465" spans="3:13" hidden="1">
+    <row r="465" spans="3:13">
       <c r="C465" t="s">
         <v>474</v>
       </c>
@@ -15515,7 +15593,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="466" spans="3:13" hidden="1">
+    <row r="466" spans="3:13">
       <c r="C466" t="s">
         <v>475</v>
       </c>
@@ -15538,7 +15616,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="467" spans="3:13" hidden="1">
+    <row r="467" spans="3:13">
       <c r="C467" t="s">
         <v>1394</v>
       </c>
@@ -15558,7 +15636,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="468" spans="3:13" hidden="1">
+    <row r="468" spans="3:13">
       <c r="C468" t="s">
         <v>476</v>
       </c>
@@ -15575,7 +15653,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="469" spans="3:13" hidden="1">
+    <row r="469" spans="3:13">
       <c r="C469" t="s">
         <v>477</v>
       </c>
@@ -15598,7 +15676,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="470" spans="3:13">
+    <row r="470" spans="3:13" hidden="1">
       <c r="C470" t="s">
         <v>478</v>
       </c>
@@ -15685,7 +15763,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="473" spans="3:13" hidden="1">
+    <row r="473" spans="3:13">
       <c r="C473" t="s">
         <v>481</v>
       </c>
@@ -15708,7 +15786,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="474" spans="3:13" hidden="1">
+    <row r="474" spans="3:13">
       <c r="C474" t="s">
         <v>482</v>
       </c>
@@ -15763,7 +15841,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="476" spans="3:13" hidden="1">
+    <row r="476" spans="3:13">
       <c r="C476" t="s">
         <v>484</v>
       </c>
@@ -15786,7 +15864,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="477" spans="3:13" hidden="1">
+    <row r="477" spans="3:13">
       <c r="C477" t="s">
         <v>485</v>
       </c>
@@ -15809,7 +15887,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="478" spans="3:13" hidden="1">
+    <row r="478" spans="3:13">
       <c r="C478" t="s">
         <v>486</v>
       </c>
@@ -15832,7 +15910,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="479" spans="3:13" hidden="1">
+    <row r="479" spans="3:13">
       <c r="C479" t="s">
         <v>487</v>
       </c>
@@ -15855,7 +15933,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="480" spans="3:13" hidden="1">
+    <row r="480" spans="3:13">
       <c r="C480" t="s">
         <v>488</v>
       </c>
@@ -15875,7 +15953,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="481" spans="3:13" hidden="1">
+    <row r="481" spans="3:13">
       <c r="C481" t="s">
         <v>489</v>
       </c>
@@ -15898,7 +15976,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="482" spans="3:13" hidden="1">
+    <row r="482" spans="3:13">
       <c r="C482" t="s">
         <v>490</v>
       </c>
@@ -15921,7 +15999,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="483" spans="3:13" hidden="1">
+    <row r="483" spans="3:13">
       <c r="C483" t="s">
         <v>491</v>
       </c>
@@ -15947,7 +16025,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="484" spans="3:13" hidden="1">
+    <row r="484" spans="3:13">
       <c r="C484" t="s">
         <v>492</v>
       </c>
@@ -15970,7 +16048,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="485" spans="3:13" hidden="1">
+    <row r="485" spans="3:13">
       <c r="C485" t="s">
         <v>493</v>
       </c>
@@ -15990,7 +16068,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="486" spans="3:13" hidden="1">
+    <row r="486" spans="3:13">
       <c r="C486" t="s">
         <v>494</v>
       </c>
@@ -16016,7 +16094,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="487" spans="3:13" hidden="1">
+    <row r="487" spans="3:13">
       <c r="C487" t="s">
         <v>495</v>
       </c>
@@ -16042,7 +16120,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="488" spans="3:13" hidden="1">
+    <row r="488" spans="3:13">
       <c r="C488" t="s">
         <v>496</v>
       </c>
@@ -16065,7 +16143,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="489" spans="3:13" hidden="1">
+    <row r="489" spans="3:13">
       <c r="C489" t="s">
         <v>497</v>
       </c>
@@ -16088,7 +16166,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="490" spans="3:13" hidden="1">
+    <row r="490" spans="3:13">
       <c r="C490" t="s">
         <v>498</v>
       </c>
@@ -16111,7 +16189,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="491" spans="3:13" hidden="1">
+    <row r="491" spans="3:13">
       <c r="C491" t="s">
         <v>499</v>
       </c>
@@ -16134,7 +16212,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="492" spans="3:13" hidden="1">
+    <row r="492" spans="3:13">
       <c r="C492" t="s">
         <v>500</v>
       </c>
@@ -16157,7 +16235,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="493" spans="3:13" hidden="1">
+    <row r="493" spans="3:13">
       <c r="C493" t="s">
         <v>501</v>
       </c>
@@ -16180,7 +16258,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="494" spans="3:13" hidden="1">
+    <row r="494" spans="3:13">
       <c r="C494" t="s">
         <v>502</v>
       </c>
@@ -16203,7 +16281,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="495" spans="3:13" hidden="1">
+    <row r="495" spans="3:13">
       <c r="C495" t="s">
         <v>503</v>
       </c>
@@ -16219,11 +16297,14 @@
       <c r="H495" t="s">
         <v>1025</v>
       </c>
+      <c r="K495">
+        <v>4</v>
+      </c>
       <c r="L495" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="496" spans="3:13" hidden="1">
+    <row r="496" spans="3:13">
       <c r="C496" t="s">
         <v>504</v>
       </c>
@@ -16246,7 +16327,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="497" spans="3:13" hidden="1">
+    <row r="497" spans="3:13">
       <c r="C497" t="s">
         <v>505</v>
       </c>
@@ -16269,7 +16350,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="498" spans="3:13" hidden="1">
+    <row r="498" spans="3:13">
       <c r="C498" t="s">
         <v>506</v>
       </c>
@@ -16292,7 +16373,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="499" spans="3:13" hidden="1">
+    <row r="499" spans="3:13">
       <c r="C499" t="s">
         <v>507</v>
       </c>
@@ -16318,7 +16399,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="500" spans="3:13" hidden="1">
+    <row r="500" spans="3:13">
       <c r="C500" t="s">
         <v>508</v>
       </c>
@@ -16341,7 +16422,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="501" spans="3:13" hidden="1">
+    <row r="501" spans="3:13">
       <c r="C501" t="s">
         <v>509</v>
       </c>
@@ -16358,7 +16439,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="502" spans="3:13" hidden="1">
+    <row r="502" spans="3:13">
       <c r="C502" t="s">
         <v>510</v>
       </c>
@@ -16381,7 +16462,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="503" spans="3:13" hidden="1">
+    <row r="503" spans="3:13">
       <c r="C503" t="s">
         <v>511</v>
       </c>
@@ -16404,7 +16485,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="504" spans="3:13" hidden="1">
+    <row r="504" spans="3:13">
       <c r="C504" t="s">
         <v>512</v>
       </c>
@@ -16424,7 +16505,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="505" spans="3:13" hidden="1">
+    <row r="505" spans="3:13">
       <c r="C505" t="s">
         <v>513</v>
       </c>
@@ -16450,7 +16531,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="506" spans="3:13" hidden="1">
+    <row r="506" spans="3:13">
       <c r="C506" t="s">
         <v>514</v>
       </c>
@@ -16476,7 +16557,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="507" spans="3:13" hidden="1">
+    <row r="507" spans="3:13">
       <c r="C507" t="s">
         <v>515</v>
       </c>
@@ -16502,7 +16583,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="508" spans="3:13" hidden="1">
+    <row r="508" spans="3:13">
       <c r="C508" t="s">
         <v>516</v>
       </c>
@@ -16525,7 +16606,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="509" spans="3:13" hidden="1">
+    <row r="509" spans="3:13">
       <c r="C509" t="s">
         <v>517</v>
       </c>
@@ -16542,7 +16623,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="510" spans="3:13" hidden="1">
+    <row r="510" spans="3:13">
       <c r="C510" t="s">
         <v>518</v>
       </c>
@@ -16565,7 +16646,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="511" spans="3:13" hidden="1">
+    <row r="511" spans="3:13">
       <c r="C511" t="s">
         <v>519</v>
       </c>
@@ -16588,7 +16669,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="512" spans="3:13" hidden="1">
+    <row r="512" spans="3:13">
       <c r="C512" t="s">
         <v>520</v>
       </c>
@@ -16611,7 +16692,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="513" spans="3:13" hidden="1">
+    <row r="513" spans="3:13">
       <c r="C513" t="s">
         <v>521</v>
       </c>
@@ -16660,7 +16741,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="515" spans="3:13" hidden="1">
+    <row r="515" spans="3:13">
       <c r="C515" t="s">
         <v>523</v>
       </c>
@@ -16683,7 +16764,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="516" spans="3:13" hidden="1">
+    <row r="516" spans="3:13">
       <c r="C516" t="s">
         <v>524</v>
       </c>
@@ -16703,7 +16784,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="517" spans="3:13" hidden="1">
+    <row r="517" spans="3:13">
       <c r="C517" t="s">
         <v>525</v>
       </c>
@@ -16726,7 +16807,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="518" spans="3:13" hidden="1">
+    <row r="518" spans="3:13">
       <c r="C518" t="s">
         <v>526</v>
       </c>
@@ -16749,7 +16830,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="519" spans="3:13" hidden="1">
+    <row r="519" spans="3:13">
       <c r="C519" t="s">
         <v>527</v>
       </c>
@@ -16775,7 +16856,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="520" spans="3:13" hidden="1">
+    <row r="520" spans="3:13">
       <c r="C520" t="s">
         <v>528</v>
       </c>
@@ -16801,7 +16882,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="521" spans="3:13" hidden="1">
+    <row r="521" spans="3:13">
       <c r="C521" t="s">
         <v>529</v>
       </c>
@@ -16824,7 +16905,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="522" spans="3:13" hidden="1">
+    <row r="522" spans="3:13">
       <c r="C522" t="s">
         <v>530</v>
       </c>
@@ -16847,7 +16928,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="523" spans="3:13" hidden="1">
+    <row r="523" spans="3:13">
       <c r="C523" t="s">
         <v>531</v>
       </c>
@@ -16867,7 +16948,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="524" spans="3:13" hidden="1">
+    <row r="524" spans="3:13">
       <c r="C524" t="s">
         <v>532</v>
       </c>
@@ -16883,6 +16964,9 @@
       <c r="H524" t="s">
         <v>1002</v>
       </c>
+      <c r="K524">
+        <v>4</v>
+      </c>
       <c r="L524" t="s">
         <v>1274</v>
       </c>
@@ -16890,7 +16974,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="525" spans="3:13" hidden="1">
+    <row r="525" spans="3:13">
       <c r="C525" t="s">
         <v>533</v>
       </c>
@@ -16916,7 +17000,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="526" spans="3:13" hidden="1">
+    <row r="526" spans="3:13">
       <c r="C526" t="s">
         <v>534</v>
       </c>
@@ -16936,7 +17020,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="527" spans="3:13" hidden="1">
+    <row r="527" spans="3:13">
       <c r="C527" t="s">
         <v>535</v>
       </c>
@@ -16956,7 +17040,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="528" spans="3:13" hidden="1">
+    <row r="528" spans="3:13">
       <c r="C528" t="s">
         <v>536</v>
       </c>
@@ -16976,7 +17060,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="529" spans="3:13" hidden="1">
+    <row r="529" spans="3:13">
       <c r="C529" t="s">
         <v>537</v>
       </c>
@@ -16993,7 +17077,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="530" spans="3:13" hidden="1">
+    <row r="530" spans="3:13">
       <c r="C530" t="s">
         <v>538</v>
       </c>
@@ -17016,7 +17100,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="531" spans="3:13" hidden="1">
+    <row r="531" spans="3:13">
       <c r="C531" t="s">
         <v>539</v>
       </c>
@@ -17042,7 +17126,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="532" spans="3:13" hidden="1">
+    <row r="532" spans="3:13">
       <c r="C532" t="s">
         <v>540</v>
       </c>
@@ -17065,7 +17149,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="533" spans="3:13" hidden="1">
+    <row r="533" spans="3:13">
       <c r="C533" t="s">
         <v>541</v>
       </c>
@@ -17088,7 +17172,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="534" spans="3:13" hidden="1">
+    <row r="534" spans="3:13">
       <c r="C534" t="s">
         <v>542</v>
       </c>
@@ -17108,7 +17192,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="535" spans="3:13" hidden="1">
+    <row r="535" spans="3:13">
       <c r="C535" t="s">
         <v>543</v>
       </c>
@@ -17131,7 +17215,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="536" spans="3:13" hidden="1">
+    <row r="536" spans="3:13">
       <c r="C536" t="s">
         <v>544</v>
       </c>
@@ -17154,7 +17238,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="537" spans="3:13" hidden="1">
+    <row r="537" spans="3:13">
       <c r="C537" t="s">
         <v>545</v>
       </c>
@@ -17177,7 +17261,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="538" spans="3:13" hidden="1">
+    <row r="538" spans="3:13">
       <c r="C538" t="s">
         <v>546</v>
       </c>
@@ -17200,7 +17284,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="539" spans="3:13" hidden="1">
+    <row r="539" spans="3:13">
       <c r="C539" t="s">
         <v>547</v>
       </c>
@@ -17220,7 +17304,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="540" spans="3:13" hidden="1">
+    <row r="540" spans="3:13">
       <c r="C540" t="s">
         <v>548</v>
       </c>
@@ -17240,7 +17324,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="541" spans="3:13" hidden="1">
+    <row r="541" spans="3:13">
       <c r="C541" t="s">
         <v>549</v>
       </c>
@@ -17260,7 +17344,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="542" spans="3:13" hidden="1">
+    <row r="542" spans="3:13">
       <c r="C542" t="s">
         <v>550</v>
       </c>
@@ -17277,7 +17361,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="543" spans="3:13" hidden="1">
+    <row r="543" spans="3:13">
       <c r="C543" t="s">
         <v>551</v>
       </c>
@@ -17294,7 +17378,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="544" spans="3:13" hidden="1">
+    <row r="544" spans="3:13">
       <c r="C544" t="s">
         <v>552</v>
       </c>
@@ -17317,7 +17401,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="545" spans="3:13" hidden="1">
+    <row r="545" spans="3:13">
       <c r="C545" t="s">
         <v>553</v>
       </c>
@@ -17340,7 +17424,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="546" spans="3:13" hidden="1">
+    <row r="546" spans="3:13">
       <c r="C546" t="s">
         <v>554</v>
       </c>
@@ -17363,7 +17447,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="547" spans="3:13" hidden="1">
+    <row r="547" spans="3:13">
       <c r="C547" t="s">
         <v>555</v>
       </c>
@@ -17386,7 +17470,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="548" spans="3:13" hidden="1">
+    <row r="548" spans="3:13">
       <c r="C548" t="s">
         <v>556</v>
       </c>
@@ -17409,7 +17493,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="549" spans="3:13" hidden="1">
+    <row r="549" spans="3:13">
       <c r="C549" t="s">
         <v>557</v>
       </c>
@@ -17432,7 +17516,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="550" spans="3:13" hidden="1">
+    <row r="550" spans="3:13">
       <c r="C550" t="s">
         <v>558</v>
       </c>
@@ -17448,11 +17532,14 @@
       <c r="H550" t="s">
         <v>984</v>
       </c>
+      <c r="K550">
+        <v>4</v>
+      </c>
       <c r="L550" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="551" spans="3:13" hidden="1">
+    <row r="551" spans="3:13">
       <c r="C551" t="s">
         <v>559</v>
       </c>
@@ -17475,7 +17562,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="552" spans="3:13" hidden="1">
+    <row r="552" spans="3:13">
       <c r="C552" t="s">
         <v>560</v>
       </c>
@@ -17498,7 +17585,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="553" spans="3:13" hidden="1">
+    <row r="553" spans="3:13">
       <c r="C553" t="s">
         <v>561</v>
       </c>
@@ -17521,7 +17608,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="554" spans="3:13" hidden="1">
+    <row r="554" spans="3:13">
       <c r="C554" t="s">
         <v>562</v>
       </c>
@@ -17544,7 +17631,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="555" spans="3:13" hidden="1">
+    <row r="555" spans="3:13">
       <c r="C555" t="s">
         <v>563</v>
       </c>
@@ -17567,7 +17654,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="556" spans="3:13" hidden="1">
+    <row r="556" spans="3:13">
       <c r="C556" t="s">
         <v>564</v>
       </c>
@@ -17590,7 +17677,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="557" spans="3:13">
+    <row r="557" spans="3:13" hidden="1">
       <c r="C557" t="s">
         <v>565</v>
       </c>
@@ -17616,7 +17703,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="558" spans="3:13" hidden="1">
+    <row r="558" spans="3:13">
       <c r="C558" t="s">
         <v>566</v>
       </c>
@@ -17639,7 +17726,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="559" spans="3:13" hidden="1">
+    <row r="559" spans="3:13">
       <c r="C559" t="s">
         <v>567</v>
       </c>
@@ -17714,7 +17801,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="562" spans="3:13" hidden="1">
+    <row r="562" spans="3:13">
       <c r="C562" t="s">
         <v>570</v>
       </c>
@@ -17737,7 +17824,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="563" spans="3:13">
+    <row r="563" spans="3:13" hidden="1">
       <c r="C563" t="s">
         <v>571</v>
       </c>
@@ -17766,7 +17853,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="564" spans="3:13" hidden="1">
+    <row r="564" spans="3:13">
       <c r="C564" t="s">
         <v>572</v>
       </c>
@@ -17789,7 +17876,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="565" spans="3:13" hidden="1">
+    <row r="565" spans="3:13">
       <c r="C565" t="s">
         <v>573</v>
       </c>
@@ -17815,7 +17902,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="566" spans="3:13">
+    <row r="566" spans="3:13" hidden="1">
       <c r="C566" t="s">
         <v>574</v>
       </c>
@@ -17844,7 +17931,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="567" spans="3:13" hidden="1">
+    <row r="567" spans="3:13">
       <c r="C567" t="s">
         <v>575</v>
       </c>
@@ -17864,7 +17951,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="568" spans="3:13" hidden="1">
+    <row r="568" spans="3:13">
       <c r="C568" t="s">
         <v>576</v>
       </c>
@@ -17887,7 +17974,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="569" spans="3:13" hidden="1">
+    <row r="569" spans="3:13">
       <c r="C569" t="s">
         <v>577</v>
       </c>
@@ -17904,7 +17991,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="570" spans="3:13">
+    <row r="570" spans="3:13" hidden="1">
       <c r="C570" t="s">
         <v>578</v>
       </c>
@@ -17933,7 +18020,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="571" spans="3:13" hidden="1">
+    <row r="571" spans="3:13">
       <c r="C571" t="s">
         <v>579</v>
       </c>
@@ -17956,7 +18043,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="572" spans="3:13" hidden="1">
+    <row r="572" spans="3:13">
       <c r="C572" t="s">
         <v>580</v>
       </c>
@@ -18037,7 +18124,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="575" spans="3:13" hidden="1">
+    <row r="575" spans="3:13">
       <c r="C575" t="s">
         <v>583</v>
       </c>
@@ -18144,7 +18231,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="579" spans="3:13" hidden="1">
+    <row r="579" spans="3:13">
       <c r="C579" t="s">
         <v>587</v>
       </c>
@@ -18170,7 +18257,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="580" spans="3:13" hidden="1">
+    <row r="580" spans="3:13">
       <c r="C580" t="s">
         <v>588</v>
       </c>
@@ -18190,7 +18277,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="581" spans="3:13" hidden="1">
+    <row r="581" spans="3:13">
       <c r="C581" t="s">
         <v>589</v>
       </c>
@@ -18210,7 +18297,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="582" spans="3:13" hidden="1">
+    <row r="582" spans="3:13">
       <c r="C582" t="s">
         <v>590</v>
       </c>
@@ -18230,7 +18317,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="583" spans="3:13" hidden="1">
+    <row r="583" spans="3:13">
       <c r="C583" t="s">
         <v>591</v>
       </c>
@@ -18250,7 +18337,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="584" spans="3:13" hidden="1">
+    <row r="584" spans="3:13">
       <c r="C584" t="s">
         <v>592</v>
       </c>
@@ -18270,7 +18357,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="585" spans="3:13" hidden="1">
+    <row r="585" spans="3:13">
       <c r="C585" t="s">
         <v>593</v>
       </c>
@@ -18290,7 +18377,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="586" spans="3:13" hidden="1">
+    <row r="586" spans="3:13">
       <c r="C586" t="s">
         <v>594</v>
       </c>
@@ -18313,7 +18400,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="587" spans="3:13">
+    <row r="587" spans="3:13" hidden="1">
       <c r="C587" t="s">
         <v>595</v>
       </c>
@@ -18339,7 +18426,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="588" spans="3:13" hidden="1">
+    <row r="588" spans="3:13">
       <c r="C588" t="s">
         <v>596</v>
       </c>
@@ -18362,7 +18449,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="589" spans="3:13" hidden="1">
+    <row r="589" spans="3:13">
       <c r="C589" t="s">
         <v>597</v>
       </c>
@@ -18385,7 +18472,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="590" spans="3:13" hidden="1">
+    <row r="590" spans="3:13">
       <c r="C590" t="s">
         <v>598</v>
       </c>
@@ -18408,7 +18495,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="591" spans="3:13" hidden="1">
+    <row r="591" spans="3:13">
       <c r="C591" t="s">
         <v>599</v>
       </c>
@@ -18431,7 +18518,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="592" spans="3:13" hidden="1">
+    <row r="592" spans="3:13">
       <c r="C592" t="s">
         <v>600</v>
       </c>
@@ -18454,7 +18541,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="593" spans="3:13" hidden="1">
+    <row r="593" spans="3:13">
       <c r="C593" t="s">
         <v>601</v>
       </c>
@@ -18477,7 +18564,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="594" spans="3:13" hidden="1">
+    <row r="594" spans="3:13">
       <c r="C594" t="s">
         <v>602</v>
       </c>
@@ -18500,7 +18587,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="595" spans="3:13" hidden="1">
+    <row r="595" spans="3:13">
       <c r="C595" t="s">
         <v>603</v>
       </c>
@@ -18523,7 +18610,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="596" spans="3:13" hidden="1">
+    <row r="596" spans="3:13">
       <c r="C596" t="s">
         <v>604</v>
       </c>
@@ -18546,7 +18633,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="597" spans="3:13" hidden="1">
+    <row r="597" spans="3:13">
       <c r="C597" t="s">
         <v>605</v>
       </c>
@@ -18569,7 +18656,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="598" spans="3:13" hidden="1">
+    <row r="598" spans="3:13">
       <c r="C598" t="s">
         <v>1391</v>
       </c>
@@ -18595,7 +18682,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="599" spans="3:13" hidden="1">
+    <row r="599" spans="3:13">
       <c r="C599" t="s">
         <v>606</v>
       </c>
@@ -18621,7 +18708,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="600" spans="3:13" hidden="1">
+    <row r="600" spans="3:13">
       <c r="C600" t="s">
         <v>607</v>
       </c>
@@ -18647,7 +18734,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="601" spans="3:13" hidden="1">
+    <row r="601" spans="3:13">
       <c r="C601" t="s">
         <v>608</v>
       </c>
@@ -18670,7 +18757,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="602" spans="3:13" hidden="1">
+    <row r="602" spans="3:13">
       <c r="C602" t="s">
         <v>609</v>
       </c>
@@ -18687,7 +18774,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="603" spans="3:13" hidden="1">
+    <row r="603" spans="3:13">
       <c r="C603" t="s">
         <v>610</v>
       </c>
@@ -18710,7 +18797,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="604" spans="3:13" hidden="1">
+    <row r="604" spans="3:13">
       <c r="C604" t="s">
         <v>611</v>
       </c>
@@ -18733,7 +18820,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="605" spans="3:13" hidden="1">
+    <row r="605" spans="3:13">
       <c r="C605" t="s">
         <v>612</v>
       </c>
@@ -18753,7 +18840,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="606" spans="3:13" hidden="1">
+    <row r="606" spans="3:13">
       <c r="C606" t="s">
         <v>613</v>
       </c>
@@ -18776,7 +18863,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="607" spans="3:13" hidden="1">
+    <row r="607" spans="3:13">
       <c r="C607" t="s">
         <v>614</v>
       </c>
@@ -18799,7 +18886,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="608" spans="3:13" hidden="1">
+    <row r="608" spans="3:13">
       <c r="C608" t="s">
         <v>615</v>
       </c>
@@ -18822,7 +18909,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="609" spans="3:13" hidden="1">
+    <row r="609" spans="3:13">
       <c r="C609" t="s">
         <v>616</v>
       </c>
@@ -18845,7 +18932,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="610" spans="3:13" hidden="1">
+    <row r="610" spans="3:13">
       <c r="C610" t="s">
         <v>617</v>
       </c>
@@ -18891,7 +18978,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="612" spans="3:13" hidden="1">
+    <row r="612" spans="3:13">
       <c r="C612" t="s">
         <v>619</v>
       </c>
@@ -18937,7 +19024,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="614" spans="3:13" hidden="1">
+    <row r="614" spans="3:13">
       <c r="C614" t="s">
         <v>621</v>
       </c>
@@ -18963,7 +19050,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="615" spans="3:13" hidden="1">
+    <row r="615" spans="3:13">
       <c r="C615" t="s">
         <v>622</v>
       </c>
@@ -18986,7 +19073,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="616" spans="3:13" hidden="1">
+    <row r="616" spans="3:13">
       <c r="C616" t="s">
         <v>623</v>
       </c>
@@ -19009,7 +19096,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="617" spans="3:13" hidden="1">
+    <row r="617" spans="3:13">
       <c r="C617" t="s">
         <v>624</v>
       </c>
@@ -19090,7 +19177,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="620" spans="3:13" hidden="1">
+    <row r="620" spans="3:13">
       <c r="C620" t="s">
         <v>627</v>
       </c>
@@ -19113,7 +19200,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="621" spans="3:13" hidden="1">
+    <row r="621" spans="3:13">
       <c r="C621" t="s">
         <v>628</v>
       </c>
@@ -19136,7 +19223,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="622" spans="3:13" hidden="1">
+    <row r="622" spans="3:13">
       <c r="C622" t="s">
         <v>629</v>
       </c>
@@ -19159,7 +19246,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="623" spans="3:13" hidden="1">
+    <row r="623" spans="3:13">
       <c r="C623" t="s">
         <v>630</v>
       </c>
@@ -19182,7 +19269,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="624" spans="3:13" hidden="1">
+    <row r="624" spans="3:13">
       <c r="C624" t="s">
         <v>631</v>
       </c>
@@ -19205,7 +19292,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="625" spans="3:13" hidden="1">
+    <row r="625" spans="3:13">
       <c r="C625" t="s">
         <v>632</v>
       </c>
@@ -19228,7 +19315,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="626" spans="3:13" hidden="1">
+    <row r="626" spans="3:13">
       <c r="C626" t="s">
         <v>633</v>
       </c>
@@ -19251,7 +19338,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="627" spans="3:13" hidden="1">
+    <row r="627" spans="3:13">
       <c r="C627" t="s">
         <v>634</v>
       </c>
@@ -19277,7 +19364,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="628" spans="3:13" hidden="1">
+    <row r="628" spans="3:13">
       <c r="C628" t="s">
         <v>635</v>
       </c>
@@ -19300,7 +19387,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="629" spans="3:13" hidden="1">
+    <row r="629" spans="3:13">
       <c r="C629" t="s">
         <v>636</v>
       </c>
@@ -19352,7 +19439,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="631" spans="3:13" hidden="1">
+    <row r="631" spans="3:13">
       <c r="C631" t="s">
         <v>638</v>
       </c>
@@ -19378,7 +19465,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="632" spans="3:13" hidden="1">
+    <row r="632" spans="3:13">
       <c r="C632" t="s">
         <v>639</v>
       </c>
@@ -19401,7 +19488,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="633" spans="3:13" hidden="1">
+    <row r="633" spans="3:13">
       <c r="C633" t="s">
         <v>640</v>
       </c>
@@ -19424,7 +19511,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="634" spans="3:13" hidden="1">
+    <row r="634" spans="3:13">
       <c r="C634" t="s">
         <v>641</v>
       </c>
@@ -19447,7 +19534,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="635" spans="3:13" hidden="1">
+    <row r="635" spans="3:13">
       <c r="C635" t="s">
         <v>642</v>
       </c>
@@ -19467,7 +19554,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="636" spans="3:13" hidden="1">
+    <row r="636" spans="3:13">
       <c r="C636" t="s">
         <v>643</v>
       </c>
@@ -19493,7 +19580,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="637" spans="3:13" hidden="1">
+    <row r="637" spans="3:13">
       <c r="C637" t="s">
         <v>644</v>
       </c>
@@ -19519,7 +19606,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="638" spans="3:13" hidden="1">
+    <row r="638" spans="3:13">
       <c r="C638" t="s">
         <v>645</v>
       </c>
@@ -19542,7 +19629,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="639" spans="3:13" hidden="1">
+    <row r="639" spans="3:13">
       <c r="C639" t="s">
         <v>646</v>
       </c>
@@ -19565,7 +19652,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="640" spans="3:13" hidden="1">
+    <row r="640" spans="3:13">
       <c r="C640" t="s">
         <v>647</v>
       </c>
@@ -19588,7 +19675,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="641" spans="3:13" hidden="1">
+    <row r="641" spans="3:13">
       <c r="C641" t="s">
         <v>648</v>
       </c>
@@ -19611,7 +19698,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="642" spans="3:13" hidden="1">
+    <row r="642" spans="3:13">
       <c r="C642" t="s">
         <v>649</v>
       </c>
@@ -19634,7 +19721,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="643" spans="3:13">
+    <row r="643" spans="3:13" hidden="1">
       <c r="C643" t="s">
         <v>650</v>
       </c>
@@ -19663,7 +19750,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="644" spans="3:13" hidden="1">
+    <row r="644" spans="3:13">
       <c r="C644" t="s">
         <v>651</v>
       </c>
@@ -19686,7 +19773,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="645" spans="3:13" hidden="1">
+    <row r="645" spans="3:13">
       <c r="C645" t="s">
         <v>652</v>
       </c>
@@ -19709,7 +19796,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="646" spans="3:13" hidden="1">
+    <row r="646" spans="3:13">
       <c r="C646" t="s">
         <v>653</v>
       </c>
@@ -19732,7 +19819,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="647" spans="3:13" hidden="1">
+    <row r="647" spans="3:13">
       <c r="C647" t="s">
         <v>654</v>
       </c>
@@ -19752,7 +19839,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="648" spans="3:13" hidden="1">
+    <row r="648" spans="3:13">
       <c r="C648" t="s">
         <v>655</v>
       </c>
@@ -19772,7 +19859,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="649" spans="3:13" hidden="1">
+    <row r="649" spans="3:13">
       <c r="C649" t="s">
         <v>656</v>
       </c>
@@ -19795,7 +19882,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="650" spans="3:13" hidden="1">
+    <row r="650" spans="3:13">
       <c r="C650" t="s">
         <v>657</v>
       </c>
@@ -19818,7 +19905,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="651" spans="3:13" hidden="1">
+    <row r="651" spans="3:13">
       <c r="C651" t="s">
         <v>658</v>
       </c>
@@ -19841,7 +19928,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="652" spans="3:13" hidden="1">
+    <row r="652" spans="3:13">
       <c r="C652" t="s">
         <v>659</v>
       </c>
@@ -19861,7 +19948,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="653" spans="3:13" hidden="1">
+    <row r="653" spans="3:13">
       <c r="C653" t="s">
         <v>660</v>
       </c>
@@ -19884,7 +19971,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="654" spans="3:13" hidden="1">
+    <row r="654" spans="3:13">
       <c r="C654" t="s">
         <v>661</v>
       </c>
@@ -19907,7 +19994,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="655" spans="3:13" hidden="1">
+    <row r="655" spans="3:13">
       <c r="C655" t="s">
         <v>662</v>
       </c>
@@ -19930,7 +20017,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="656" spans="3:13" hidden="1">
+    <row r="656" spans="3:13">
       <c r="C656" t="s">
         <v>663</v>
       </c>
@@ -19985,7 +20072,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="658" spans="3:13" hidden="1">
+    <row r="658" spans="3:13">
       <c r="C658" t="s">
         <v>665</v>
       </c>
@@ -20011,7 +20098,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="659" spans="3:13" hidden="1">
+    <row r="659" spans="3:13">
       <c r="C659" t="s">
         <v>666</v>
       </c>
@@ -20034,7 +20121,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="660" spans="3:13" hidden="1">
+    <row r="660" spans="3:13">
       <c r="C660" t="s">
         <v>667</v>
       </c>
@@ -20057,7 +20144,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="661" spans="3:13" hidden="1">
+    <row r="661" spans="3:13">
       <c r="C661" t="s">
         <v>668</v>
       </c>
@@ -20072,15 +20159,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M661" xr:uid="{E11B8444-7DE6-8B41-897D-94DEB520DC3A}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="门诊儿内"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="3"/>
+  <autoFilter ref="K1:K661" xr:uid="{637075BF-E54C-A343-A58B-E82DDA081C29}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="4"/>
       </filters>
     </filterColumn>
   </autoFilter>
